--- a/data/kin_section4_narratives.xlsx
+++ b/data/kin_section4_narratives.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rythomas\Documents\R scripts\country_scorecards\country_scorecards\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rythomas\Documents\R_scripts\country_scorecards\country_scorecards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74173482-B385-4453-848F-81A804586968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C36D8E3-2B65-40B9-BB8F-176E3091D186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3930" windowWidth="29040" windowHeight="15840" xr2:uid="{08F4287E-D4FA-4E4B-9BD0-8619EF0B0FA0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08F4287E-D4FA-4E4B-9BD0-8619EF0B0FA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$237</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="191">
   <si>
     <t>ro</t>
   </si>
@@ -47,9 +50,6 @@
     <t>ou</t>
   </si>
   <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
     <t>4a</t>
   </si>
   <si>
@@ -81,16 +81,568 @@
   </si>
   <si>
     <t xml:space="preserve">A total of six projects reported results for this indicator. This indicator overachieved its target by approximately 24 percent. This is primarily because four out of the six projects reporting on this indicator were able to exceed their targets significantly with additional private partnerships. In addition, the FTF Aquaculture and Nutrition project, which was supposed to end in February, received a time extension through November 2023. The additional nine months allowed the project to leverage more private sector partner investments. The Aquaculture and Nutrition project reported $712,898, CSISA MEA reported $3,528,351, Horticulture reported $9,086,835, IRRI reported $6,064,597, Livestock reported $979,564, and Nutrition reported $323,222 in private sector leveraging. The Aquaculture project ends in 2023, so the outyear targets are lower than the FY 2023 results. The other five projects have set out-year targets according to their work plans and </t>
+  </si>
+  <si>
+    <t>Bureau for Latin America and the Caribbean</t>
+  </si>
+  <si>
+    <t>N/A - LAC/RP programming does not track this indicator.</t>
+  </si>
+  <si>
+    <t>N/A - LAC/RP is not a Feed the Future Target Country Operating Unit.</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>USAID VIMPlus exceeded the overall annual sales by 87 percent of the targets. The highest sales were from small ruminants and poultry. This performance has been made possible thanks to the livestock value chains which generated 3.5 fold more sales than expected. The strategic destocking of small ruminants and poultry in view of the difficult security situation could explain the strong growth in animal sales. The strategic destocking of small ruminants and poultry in view of the difficult security situation could explain the strong growth in animal sales.  Original targets underestimated the demand caused by breakdowns in the conventional supply chains caused by insecurity as well as the capacity / interest of local production. Original estimates also assumed that only approximately ½ to ⅔ of SCOOPS members would engage in sales of small ruminants when the reality ended up being significantly higher.</t>
+  </si>
+  <si>
+    <t>USAID VIMPlus did not reach the target set for FY 2023 because of the displacement of the population, which resulted in unpaid loans from FY 2022, the credit union refrained from granting loans this year out of prudence. ViMPlus will advocate with its partner, the credit union, to grant loans to saving groups in accessible villages. In addition, during FY 2024, ViMPlus in partnership with RISE 2's Catalyze Project, the credit union and OCADES will facilitate access to credit for SILC group members.  Over the past year, our partner financial institutions have closed some of their offices, taking financial services further away from the population. As a result, beneficiaries have had to focus on the local credit unions. In the coming year, we plan to work in partnership with the Caisse Populaire (credit union network) to set up a new mechanism for monitoring displaced beneficiaries in their new homes, and to resume credit operations in partnership. In addition to this, the interaction plan (ViMPlus-CATALYZE-OCADES) to be implemented in the second quarter of FY 2024 aims to improve the supervision of participants and motivate the Caisse Populaire. The Target FY2023 was originally reported in CFA while the FY24 and FY25 targets were reported in US dollars. ViMPlus reviewed FY23 Target value with BHA Regional Monitoring &amp;E Specialist Oumar Moussa S. Diallo. The FY23 Target right value is        USD $157,729. FY24 and FY25 targets are half the actual value of FY23. There are several reasons for this. People on the move don't feel confident about taking out new loans, and financial institutions aren't as courageous as they should be about continuing to take on a lot of risk. We estimate that under these conditions, only half of the participants (generally located in secure villages) will have access to credit.</t>
+  </si>
+  <si>
+    <t>The increase could be explained by the fact that displaced producers have benefited from a strong use of technologies and practices adapted to climate change on degraded land in their host area. Capacity building was beneficial to program participants, especially those who have been displaced.  This is mainly due to the reduction of the ViMPlus intervention zone due to the sustainability approach. Activities will be developed in only four communes. The FY 2024 and FY 2025 targets represent the number of SCOOPs members in these four communes of ViMPlus ZOI, selected to complete the sustainability strategy. The FY 2024 and F2025 targets do not aim to improve performance. During this period, the aim is to qualitatively improve adoption and decision-making at household and producer organization level. ViMPlus will not recruit new beneficiaries. The aim is to carry out dense actions on smaller targets that have demonstrated their capacity for positive transformation.</t>
+  </si>
+  <si>
+    <t>The target was unmet by 28%.  The results reported were from the Cross Border Community resilience Activity (CBCR) which achieved 28% ($55,140) of the target ($200,000). The numbers reported were for fisherfolk who carry out fishing in Lake Turkana for a period of six months and not for a full year as was projected. The same applies for the beekeeping and chicken rearing groups where the sales data reported for the beekeeping groups are only for one season and not for the entire year. The fact that this indicator was introduced midway in year two also affected achievement of the targets as grantees had to review their planned activities to align with this indicator, meaning that alternative livelihood training activities were delayed.  CBCR has instituted measures to ensure that these groups will have better incomes which CBCR will track and report better sales. Most of the participants just got support in the last quarter of the second year of implementation and these targets will be met once the in-kind fishing items or modern bee hives are distributed to the target beneficiaries.</t>
+  </si>
+  <si>
+    <t>East Africa</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>The target was unmet by 22%  This is a new indicator that was modified from the indicator EG.3.1-14. The activities that reported against this indicator include Kenya Investment mechanism that has since closed and the two newly-assigned Trade Catalyst Africa (TCA) and the Africa Trade and Investment Program (ATI). The target wasn't achieved because TCA year 1 was spent mostly on laying the foundation and preliminary activities of work planning, onboarding sub-grantees and mobilizations. For the ATI activity, 5 grants feeding results into this indicator were awarded during Q3 and Q4 of the reporting year, resulting in lesser private sector investments than was projected during target setting.  The shift by the KIM to focus on SMEs has demonstrated over the years that there is still demand for finance (debt and equity) at a regional level, which can not be solely met by governments of the member states. Before closing out during the period, KIM managed to leverage $1,050,000 in WASH, agriculture and health sectors while ATI activity leveraged $357,889 in supporting food security and nutrition across the region. The increase in targets for the indicator in FY 2024 is because of the two newly-assigned activities, Trade Catalyst Africa Activity (TCA ), and the Africa Trade and Investment Program (ATI) activities which will be reporting against this indicator.</t>
+  </si>
+  <si>
+    <t>The FY2023 target was exceeded. USAID's trade facilitation efforts led to higher sales for beneficiary agribusinesses. Interventions included upgrading technology, enhancing food safety and quality, and establishing market connections within and beyond Georgia. Building strong relationships with potential buyers is a key aspect of international trade, often requiring significant time and effort. The fact that some deals are in the final stages of negotiation is a promising sign of the program's effectiveness. As trust continues to grow, Georgian producers are well-positioned to seize numerous opportunities to expand their export reach in diverse markets.   In FY 2024, export-oriented agribusinesses will continue to receive comprehensive technical, encompassing support in marketing and branding, food certification consultancy, registration assistance with the Food and Drug Administration, participation in international events, and an array of services designed to expedite their entry into lucrative export markets.  The program will continue to facilitate connections with international buyers, providing beneficiaries with a clearer understanding of the opportunities and challenges in high-value markets.  USAID’s flagship program that contributes to this indicator will close on March 22, 2024. As the program is phasing out, the FY 2024 target is lower than the FY 2023 actual. The FY 2025 target is notional and will be adjusted once the new program contract is established and finalized.</t>
+  </si>
+  <si>
+    <t>Georgia Program</t>
+  </si>
+  <si>
+    <t>The FY2023 target was exceeded. Positive deviation is due to increased interest of agribusinesses to participate and co-invest in grants and individual technical assistance activities, including in export diversification efforts.  Extensive consultations with pertinent public and private sector stakeholders, alongside a comprehensive review of trade patterns, allowed the program to identify new markets for Georgian produce.    USAID’s flagship program that contributes to this indicator will close on March 22, 2024. As the program is phasing out, the FY 2024 target is lower than the FY 2023 actual. The FY 2025 target is notional and will be adjusted once the new program contract is established and finalized.</t>
+  </si>
+  <si>
+    <t>Sahel Regional Program</t>
+  </si>
+  <si>
+    <t>The stated FY 2023 target of $13,117,161 in DIS did not include some of the WATIH targets, resulting in the appearance of a lower target that unfortunately cannot be edited. The actual FY 2023 target was $29,061,583, and that higher figure was not achieved. In Burkina Faso, USAID WATIH fell short of its sales target of $15,577,027 by 62 percent due to increased unpredictability in some regions where the grantees are operating. This “unpredictability” is the result of a number of contextual factors beyond USAID’s control, namely increasing violence, instability and market disruption. Farmers are understandably anxious and distressed due to increased banditry, reports of armed individuals invading their property, and kidnapping, which is deterring them from focusing fully on their farming operations. In certain areas, these security issues have significantly impacted farmers' capacity to complete harvests, inevitably impacting sales.</t>
+  </si>
+  <si>
+    <t>The stated FY 2023 target of $13,117,161 in DIS did not include some of the WATIH targets, resulting in the appearance of a lower target that unfortunately cannot be edited. The actual FY 2023 target was $29,061,583, and that higher figure was not achieved. In Burkina Faso, USAID WATIH fell short of its sales target of $15,577,027 by 62 percent due to increased unpredictability in some regions where the grantees are operating. This “unpredictability” is the result of a number of contextual factors beyond USAID’s control, namely increasing violence, instability and market disruption. Farmers are understandably anxious and distressed due to increased banditry, reports of armed individuals invading their property, and kidnapping, which is deterring them from focusing fully on their farming operations. In certain areas, these security issues have significantly impacted farmers' capacity to complete harvests, inevitably impacting sales. As stated above, many of the factors that prevented us from reaching our targets are beyond USAID’s control. USAID will continue to adapt activities as possible, but the broader instability and uncertainty will likely continue to constrain production and sales, and therefore have a negative impact on our results moving forward.  The overall target for this indicator was not met in FY 2023. USAID Yidgiri failed to reach the target of $411,687 by 66 percent, primarily due to insecurity. Microfinance institutions continue to close their branches in the communities of interventions. In addition, the capacity of union leaders to develop loan applications and negotiate loans remains low despite the capacity-strengthening support received.   USAID CATALYZE results were below the targets for this indicator (-27.75 percent). There was heightened insecurity and instability in target regions. In addition, there was closure of certain FI partners’ branches/locations as they no longer provide credit within 15 km of urban centers. The eligibility conditions for credit renewals changed which resulted in the exclusion of several transactions which were judged ineligible in calculating the value of private capital mobilized during the period. Furthermore, there were delays in grants approval by the donor as well.  Similarly, USAID WATIH was below its target in Cabo Verde by 18 percent. However, the activity exceeded the FY 2023 target in Burkina Faso and Niger by more than 35 percent. The over-achievement is primarily due to additional clients reached by some grantees like Agroserv and Sinergi Burkina.</t>
+  </si>
+  <si>
+    <t>USAID Yidgiri was below its FY2023 target of 28,050 by 17 percent, generally due to the fact that the high cost of agricultural inputs hampered the application of improved technologies and good management practices by producers. However, contributions from TerresEauVie (USAID TEV) explains the overreaching of the target. USAID TEV reported 158,411 hectares under improved management practices. While our aggregate target was exceeded, Yidgiri is making some adaptations in order to improve their activity-level results. Specifically, with the war in Ukraine, the price of fertilizer doubled. However, Yidgiri has begun promoting the use of compost and other natural fertilizers, which should help improve results and limit exposure to the impact of increased fertilizer costs.</t>
+  </si>
+  <si>
+    <t>USAID partners (WATIH, ATI and Yidgiri) over-achieved their FY 2023 targets in Burkina Faso by 12 percent.  The success of this indicator was due to efforts by co-investment partners to reach more smallholder farmers than was initially targeted.  Future targets are lower due to the close ending date of the implementation phase of RISE II.</t>
+  </si>
+  <si>
+    <t>USAID Bangladesh</t>
+  </si>
+  <si>
+    <t>USAID Burma</t>
+  </si>
+  <si>
+    <t>The reported revenue exceeded the target number due to market price fluctuations. Overall, this indicates that the Activity-assisted companies successfully diversified their revenue streams and effectively navigated unpredictable market conditions. Adopted contract farming practices leading to increased sales for both the producers and firms. FY 2024 Target =15834071 Due to uncertainty of markets, price fluctuation and frequent policy change. FY 2025 Target =21834071</t>
+  </si>
+  <si>
+    <t>All mechanisms support women-led businesses access to finance and ensure gender inclusive in partnership co-creation with market actors. FY 2024 Target =1.83 FY 2025 Target =NA</t>
+  </si>
+  <si>
+    <t>Re-modeled agricultural produce sourcing approach by market actors e.g., a shift sourcing from individual farmers to sourcing from mainly from farmer groups, contract farming arrangements and from farmer associations allowed market actors to procure more volume of agricultural produce from farmers; this procurement cost is a major contributor to the achievement. FY 2024 Target =6034681 FY 2025 Target =5144894</t>
+  </si>
+  <si>
+    <t>USAID Colombia</t>
+  </si>
+  <si>
+    <t>The target was exceeded by 8%. The increase in international prices for agricultural commodities helped to boost sales during FY23 (specially the increase in price for cacao in international markets as an export product: +150% for 2023 vs. 2022 )  Deviation Narrative (explain why your FY 2023 Actual did or did not meet its target): The increase in international prices for agricultural commodities helped to boost sales during FY23 (specially the increase in price for cacao in international markets as an export product: +150% for 2023 vs. 2022 )  If you met or exceeded your target, describe successful or promising practices that contributed to this sustained or improved progress to incorporate into your ongoing adaptive management.  The tailored technical assistance for the specific needs per value chain and geography (especially for cocoa and dairy) helped to mitigate unexpected weather conditions.</t>
+  </si>
+  <si>
+    <t>For FY 23, no Activity reported for this indicator. For FY 24 and FY 25, we will work to set targets with the Equitable Finance Activity, for their work to improve access to financial services to agricultural value chains.</t>
+  </si>
+  <si>
+    <t>The target for FY23 was met. For FY23, a total of 580.5 hectares were under improved management. The Cacao Effect GDA, was able to support additional hectares due to the resources leveraged from ENEL, a private partner from the energy sector in Colombia. Some of those hectares received cocoa seedlings for new crops; other hectares were under rehabilitation activities to replace low-production plants with more productive breeds.  The full set of supported hectares from the cocoa farmers were supported by extension services, supply of fertilizers and training on cocoa production. The Colanta GDA - Bitter Cassava for a Sweet Milk support to the dairy production system was driven by the increasing demand of pasture renovation services, as the farmers considered this assistance a high quality and cost-effective strategy. For the industrial cassava,  the process was related to the preparation for the planting season.</t>
+  </si>
+  <si>
+    <t>The target was exceeded by 121%.  Deviation Narrative (explain why your FY 2023 Actual did or did not meet its target): During FY23, USAID/Colombia’s partners in food-security related activities invested USD 5,362,892 in different aspects of the value chains for diverse agribusinesses. Partnerships enhanced agricultural value chains to improve productivity, access to finance, and market linkages. The significantly higher value of private sector investment is primarily the result of the private investment strategy implemented by the Bitter Cassava for a Sweet Milk activity. The alliance leveraged not only Colanta’s own resources but also a better-than-expected provision of financial services by the Cooperativa de Ahorro y Crédito - the credit union part of Colanta’s corporate holding.  If you met or exceeded your target, describe successful or promising practices that contributed to this sustained or improved progress to incorporate into your ongoing adaptive management. The very close relationship between the private sector and USAID/Colombia is one of the strategic pillars of the GFS-FTF funded activities. The results show the effect of this strategic approach.</t>
+  </si>
+  <si>
+    <t>USAID Dem Rep Congo</t>
+  </si>
+  <si>
+    <t>The strengthened capacity of private and public sector actors, coupled with a more favorable  business policy environment, will encourage agribusinesses to engage in productive and resilient markets that will lead to increased sales, increased employment, and enterprise growth. FTF in DRC prioritizes policy, governance, and regulatory reforms to improve agri-food system efficiencies which increase sales and incomes of smallholder farmers, MSMEs, indigenous peoples, women and youth.   FTF works to deepen economic connectivity between agricultural market corridors within the DRC, expanding and sustaining linkages between producers, aggregators, processors, buyers, and end market consumers, leading to more reliable inputs, increased transactions and more resilient markets. Continuing to improve these connections will add tremendous value to the agriculture and food market system, expanding access to markets and increasing sales and household incomes for producers. As a new FTF Focus Country, new programming in development will seek to build off of successes and lessons learned to continue to drive transformational change in the agri-food system, through direct partnership and targeted interventions at the producer, firm, and enterprise level. The Mission anticipates that leveraging this and other strategies will enable FY 24 targets to be exceeded.   By and large, the FY 2023 target for Performance Goal Indicator (PGI) 1 was met. A few main factors contributed to this including expanded implementation in Ituri, the culmination of significant RFSA investments, and strong coffee and cocoa production seasons. Targets for FY 2024 and 2025 are currently lower than the FY 2023 due to a shift in portfolio approach, location and implementation. During this shift, new activities will need to grow from the inception stage to full implementation with results likely to be impacted as a result.</t>
+  </si>
+  <si>
+    <t>FTF interventions prioritize enhancing  the availability and access of financial resources, with a specific focus on empowering women and encouraging their broader participation in the agri-food and market system. These efforts seek to leverage capacity development and partnerships with the private sector and financial actors to ensure that financial services provided are accessible by women, and that women entrepreneurs are more prepared as borrowers to apply and utilize available funds.   Building off of the successes and learning from FY 2023, collaboration with both commercial and micro-finance institutions will be undertaken to improve their financial products and align service offerings so that barriers for women entrepreneurs as borrowers are reduced. In concert with financial institutions, targeted support will be provided to improve policy, procedures, and the provision of services and tools to enhance the appeal  and utilization of these finance products and services for women.  FTF interventions in FY 2024 will leverage concerted efforts working with women groups, cooperatives, and farmers so as to ensure that women producers are more engaged with equitable access to technology and innovations that support deepened connections to MFIs and access to finance.  The target for PGI 2 was met. However, this is a new indicator for the mission. Active and in-design activities are seizing opportunities to integrate this indicator as opportunities arise and intend to meet or exceed $1.00 in value of finance accessed by females per dollar of finance accessed by males moving forward.</t>
+  </si>
+  <si>
+    <t>FY 2023 FTF interventions in the DRC are improving efficiencies of agricultural practices using climate-smart and regenerative practices, including the adoption of  resistant crop varieties and integrated farm management approaches. These strategies not only encourage the intensification of production, but also motivate producers to expand production sustainably.   By implementing these practices, hectares under improved management practices are expected to improve yield while enhancing the  landscape’s capacity for climate adaptation and risk management. This holistic approach not only boosts productivity, but also fosters resilience in the face of climate variability and challenges, ensuring the long-term sustainability of the production and food system. Building on these successes, the Mission anticipates that new programming and interventions will facilitate more sustainable management of agricultural land under intensive production, allowing the FY 2024 target to be met.</t>
+  </si>
+  <si>
+    <t>The overarching goal FTF in DRC is to stimulate increased private sector investment in agriculture and agribusinesses by fostering confidence in a more conducive business enabling environment for establishment and growth. The Mission’s FY 2023 FTF efforts have prioritized policy, governance, and regulatory reforms in a manner that endeavors to create attractive investment opportunities for the private sector.   Increased investment in the agri-food systems by the private sector will continue to enhance market efficiencies, thereby reducing market system inefficiencies and dependence on costly imports, while broadly increasing sales and household incomes for smallholder farmers, MSMEs, indigenous peoples, women, youth and the landless.   In FY 2024, FTF efforts that facilitate value-added relationships among the private sector and buyers, input and service providers, and smallholder farmers are expected to increase access to market information and build market actor capacity to meet consumer preferences. This, in turn, empowers producers and MSMEs to tap into better market opportunities, attracting greater investment in the agriculture sector and market system writ-large. Improving these connections has the potential to add tremendous value to the agriculture and food market system by expanding access to markets and other essential inputs, creating greater incentive for private sector investment.  The target for PGI 4 was slightly exceeded and within the expected range of deviation.</t>
+  </si>
+  <si>
+    <t>N/A. The operating unit does not have recent PBS results or a PBS in place.   Moving forward, FTF interventions will increasingly promote markets and market linkages that provide significant benefit to small-holder farmers, women, the landless and other marginalized groups who lack access to safe and nutritious foods. Facilitating relationships among buyers, input and service providers, and smallholder farmers producing nutrient dense or biofortified agriculture products is anticipated to increase availability and affordability of nutrient dense foods on local and regional markets, increase access to information by the community and end market consumers, and  build producer capacity to meet consumer demand for a  diversified food market.  FTF also includes interventions that are poised to boost productivity and diversified production, increase processing and improved post-harvest handling practices, and expand sales of safe and nutritious agricultural products. Efforts will be oriented toward small-holder farmers, producers and community-based organizations, and civil society organizations with the capacity to respond to market signals or influence the adoption of healthy diets.  Support will be provided to enhance the marketability and  demand creation of diversified and nutritionally dense produce and agriculture products.</t>
+  </si>
+  <si>
+    <t>USAID Egypt</t>
+  </si>
+  <si>
+    <t>The total reported sales for farms and firms that received support from ERAS in FY 2023 are $270,742,774 for new and continuous beneficiaries, including $7,896,065 for women and $76,701,282 for youth smallholder farmers. This reflects the robust market linkages the activity established between POs and agricultural commodity buyers, as well as the high adoption rate of new or improved management practices, which increased productivity in several targeted value chains. In addition, prices increased for most of the targeted crops, especially onion, potato, green bean, mango, and fennel which boosted annual sales. The target for that indicator in FY23 was set to 150,000,000 and the high deviation can be explained by several factors, including high rates of inflation, bad weather, food price increases for most of the targeted value chains, more productivity, more demand, and better marketing opportunities.  In addition, that ERAS activity expanded its technical assistance into the delta region. ERAS’s FY 2024 target was raised to $200 million compared to FY 2023 based on the activity’s success in this year. As these influencing factors are not certain to recur with the same intensity in FY 2024, the target increase is modest. In FY 2025, the target drops to $30 million as ERAS will be working in only the wheat value chain.</t>
+  </si>
+  <si>
+    <t>During FY 2023, ERAS continued to provide technical support for the targeted financial institutions to enhance their operational, financial, and credit management capabilities. ERAS also established linkages between the partner financial institutions and smallholder producer organizations. This resulted in the disbursement of $1,030,452 (EGP 28,106,500) of agri-loans for 1,094 smallholder farmers, including 437 women (39.9% of the total) and 295 youth (26.96%). Women received $400,709 (38.8%) and youth received $279,147 (27% of the total). The reported loan value also included the value of loans to smallholder wheat farmers. The value of wheat loans was $117,38 with 166 loan recipients. The target for FY 2023 assumed that revolving funds would reach partnering financial institutions and that they would distribute these funds to smallholder farmers. However, the revolving funds were not delivered on time due to delay in approvals from the GOE, leading to a deviation from the target by 45.5%. In FY 2023, USAID extended the ERAS activity to July 2026. Therefore, in FY 2024, ERAS will continue linking financial institutions with smallholder producer groups and train financial institutions' board and staff members to increase their agri-loan lending capacity. This will help the smallholder farmers access quality inputs, switch from low-profit crops to high-value and low-water crops that meet market standards. ERAS will also work with the financial institutions to design agri-loans for wheat growers. The FY 2024 target is $1,875,000, including $213,500 for the wheat value chain. The FY 2025 target is $1,000,000, including $110,000 for the wheat value chain.</t>
+  </si>
+  <si>
+    <t>In FY 2023, 56,462 individuals applied improved management practices and/or technologies, recommended by ERAS, to 37,962 hectares of the targeted value chains. This number includes 1,516 hectares owned and managed by women farmers, as well as 8,799 hectares owned and managed by youth farmers. The new/improved management practices and/or technologies included: cultural practices, soil fertility, irrigation management, pest and disease control, climate adaptation, crop genetics, and post-harvest practices. The number of hectares under improved management practices include tomato (6,234 hectares), potato (5,132 hectares), mango (3,191 hectares), green bean (759 hectare), fennel (2,022 hectares), basil (1,382 hectares), onion (4,971 hectares), dates (879 hectares), mint (545 hectares), pomegranate (3,054 hectare) and wheat (7,686 hectare) value chains. Adopting new and improved practices contributed to improving the productivity, sales, and profitability of the targeted value chains. Based on FY 2023 results, the activity targets 35,000 hectares (covering horticulture and wheat) in FY 2024. The FY 2025 target is reduced to only 10,000 in wheat hectares, as the horticulture work is scheduled to end in FY 2024.</t>
+  </si>
+  <si>
+    <t>In FY 2023, private sector partnering firms and producer organizations, engaging in for-profit nutrition, agriculture, and/or food system-related activities, contributed a total of $74,722 to support and advance interventions and objectives of ERAS activity. The partnering organizations demonstrated their interest in partnering with ERAS in the form of in-kind contributions; such as cost-share in grants and providing training rooms, trainers, field advisors, salaries, etc. ERAS underachieved for this indicator due to the procedural delays delivering revolving funds, rising concerns over the exchange rate volatility in Egypt, and low private sector interest in investing in agriculture resulting from ongoing macroeconomic uncertainty related to lingering impacts of COVID-19 and the Russia/Ukraine war. ERAS targets leveraging $1,050,000 in investments in FY 2024 and FY 2025. The activity will continue to work with various financial institutions to implement revolving funds and will include the value of cost-sharing for all sub-grants in the indicator result.</t>
+  </si>
+  <si>
+    <t>USAID Ethiopia</t>
+  </si>
+  <si>
+    <t>During the reporting period, USAID facilitated $127.6 million in sales. The performance on the sales indicator has exceeded the target. The partnership with more private entities, the onboarding of the Accelerator (large clients), and support through business-to-business forward market linkage forums resulted in high sales. Effort towards supporting farmers and firms to generate products for sales is critical as it fosters their competitiveness in big markets.  The Mission will continue supporting actors so that they are connected to markets and capacitated to improve the values of their sales. The average value of annual sales of producers and firms in the coming two years is expected to be $50,000,000. The mission is a bit conservative in the next two years of targeting because of the fact that the country is affected by continued internal conflict that will hugely affect investment and resource mobility and eventually sales.</t>
+  </si>
+  <si>
+    <t>In Ethiopia, the gender gap in accessing economic resources such as finance remains a challenge, and this has been counterproductive in improving household welfare. Despite huge room for improvement, USAID/Ethiopia has been working to close the gender disparity in financial access between male and female proprietors via a number of activities which targeted women-owned businesses and small-enterprises.    In FY2023, the total amount of cash debt and non-debt finance received by female producers/proprietors was $13,626,363.00, whereas the value for male counterparts was $70,660,524.00. The performance of Value of finance accessed by females per dollar of finance accessed by males was 0.19 showing that for every one dollar accessed by men, women were having sixteen cents that demonstrate huge gender gap and unmet demand by females. The mission is working to address this gap through tailored grant provision to women, engaging women in the value chain development interventions, enabling women to access land and encouraging them to collateralize their land to financial institutions etc.</t>
+  </si>
+  <si>
+    <t>USAID Ghana</t>
+  </si>
+  <si>
+    <t>The shortfall from the target was largely driven by the FtF Ghana Trade and Investment (GTI) Activity and, to a lesser extent, the FTF West Africa Trade and Investment Hub (WATIH) activity. Targets set by GTI were ultimately based on incorrect application of definitions in the performance indicator reference sheet, which led to a gross over estimation of levels of sales they could feasibly generate.  Grantees' delays in completing processing facilities were primarily responsible for WATIH's shortfall. For instance, a large-scale fonio factory, scheduled for completion in early 2023, faced delays in importing processing equipment. Consequently, although they purchased raw inputs from farmers in the previous agricultural season, they have stored them, intending to commence processing for export sale in April 2024. Similar delays in facility construction or processing line buildout were experienced by other grantees in the shea and soy sector, resulting in lower business-level sales in 2023 compared to project targets. Value of sales is expected to increase significantly in FY24, resulting in WATIH meeting its LOA target.  N/A  Efforts will be geared towards monitoring and tracking the expected results on large value sales in FY24 Q1 which will potentially close the gap to achieve the set target. In addition, efforts will be made to ensure that GTI revised its out-year targets based on correct and reasonable assumptions for eligible firms.  The drop in the FY25 target is due to the Program Cycle. Previous Mission leadership held all new procurements until the CDCS was finalized in 2020, which resulted in much of the portfolio’s activities starting and now ultimately ending at the same time. New activities are in design now that will ultimately result in an increased FY25 target once those activities are online. We also anticipate following contract modifications that both MFA and GTI’s targets will be revised upward for FY25.</t>
+  </si>
+  <si>
+    <t>The deviation in gender parity in access to finance was driven by the FTF Mobilizing Finance in Agriculture (MFA) activity. The experience of our programming in access to finance is that the dollar amounts sought by female borrowers is currently much lower than that of men. Overall, however, we are seeing more individual loans made to women than to men.   N/A  As adjustments to address this, we will seek ways through MFA to both increase loan sizes for women who want larger loans, and through increasing the total number of loans to women. The follow-on activity to MFA is also in design and we will ensure that performance targets require the partner to achieve parity.    N/A as aggregate of FY2024 and FY2025 target value is more than the FY2023 actuals</t>
+  </si>
+  <si>
+    <t>We will gradually increase the target through activities whose design processes are beginning now and look at how existing activities could contribute more to this indicator.  Successful practices included ensuring that there is extensive utilization of the skills and knowledge gained by smallholder farmers. The PIATA activity driving these results ensured that there were improved/climate smart varieties of maize hybrids, groundnut Open-Pollinated Varieties, etc. Additionally, besides agricultural extension practices such as the establishment of demonstration plots, there was the use of digital tools to provide digital extension services to farmers by a digital extension consortium that includes Farmerline, Catholic Relief Services, and the Hunger Project.    N/A - Target met  Activities contributing to the indicator results will be winding down/closing. New activities are currently in design that will allow the Mission to raise this target and accelerate progress toward the FY30 target.</t>
+  </si>
+  <si>
+    <t>The shortfall from the target was driven by FTF Mobilizing Finance in Agriculture's missed target on mobilized finance, which is often used for working capital and counted under this indicator. Over the reporting period, the dollar value of financing mobilized for agribusinesses was lower than the target, caused in part by the rapid depreciation of the cedi which affected the achievement of the target. In addition, FTF West Africa Trade Hub activity was a key contributor to the indicator underperformance due to challenges faced by grantees in securing investment. Given the abrupt downturn in the Ghanaian macroeconomic situation, domestic financial institutions faced capital constraints which disrupted financial flows while external financial institutions became more reticent to lend and invest. As banks and agribusinesses scrambled to adjust to changing financial sector regulations and the need for increased due diligence, capital flows to partners such as Nuts for Growth and FreezeLink were delayed. These partners are on track to mobilize the total targeted investment, it will just be reported in FY 24 rather than FY 23.   N/A as target was not met  We will keep track and monitor the delayed capital flows to partners and ensure that these are recorded in FY 24 which will help address the shortfall seen in FY23</t>
+  </si>
+  <si>
+    <t>There is a delay in the release of the indicator results by ICF. ICF is currently analyzing the results following  the PBS midline indicator assessment conducted. Once the results are released, the MDD-W result  for Ghana OU will be shared accordingly.</t>
+  </si>
+  <si>
+    <t>USAID Guatemala</t>
+  </si>
+  <si>
+    <t>In FY23, three activities generated $51,493,461 million in sales, which exceeds the $47.2 million target. FtF expects to meet and not exceed significantly the FY24 of $53.8 million and $60 million in FY25 because CEO and GEDI will not receive more FtF funds in FY24.  Disaggregating the $51 million total shows that the ProInnova activity contributed nearly 77% of sales results, or $39.5 million, due to intensified efforts to increase the sales of organized and individual producers in the national market, as well as renewing and creating alliances with strategic partners to bolster international market sales in 2024.   The target was exceeded due to the GEDI activity’s sales of $7.2 million versus their target of $477,000. This is due to the timing in reporting and design of GEDI which was able to recruit additional partners after the target was set. Overall, GEDI 2023 results are consistent with the goals recalculated during this year, and it will be regularized at the end of this activity, since this is an accurate reflection of planned stakeholders in FY 2023.   CEO is the third contributor and provided specialized technical and financial assistance to 37 companies in agricultural value chains and achieved $4.73 million in sales through 19 of these companies. This far exceeded and doubled the CEO target of $1.7 million and was due to the addition of new companies in 2023 and exponential sales of a CEO-supported FtF company, Conservas y Congelado Ya Esta S.A., which was approved in December 2020. With CEO support for feasibility studies for business expansion, including architectural designs and plans, the company secured $5 million in May 2023, brought another 1,000 small-scale producers into its production lines, and generated 120 new jobs in its factory in Guatemala City. This company produces preserves, sauces, and corn-derived products and sauces for a diaspora market overseas and for traditional dishes in Guatemala.</t>
+  </si>
+  <si>
+    <t>This indicator is based on access to finance which has exceeded our overall target of $5,750,000 by nearly doubling with $9,778,108 million in financing. Female parity in access to finance, however, is difficult to report because out of the $9.7 million, USAID/Guatemala has $7.5 million in finance disaggregated as sex of proprietorship to be mixed sex. This number is not disaggregated because two of our main contributing activities to this indicator, CEO and GEDI, are not able to disaggregate at the private sector company level due to known mixed gender company ownership. CEO and GEDI are also mixed funds activities with non-earmarked private sector funding, FtF/Agriculture funds, and other earmarks, thus, activities were not designed with the FtF indicator framework at inception.    For the data that USAID/Guatemala can disaggregate, in the case of the flagship ProInnova value chain project, the total in loans was $407,280 to 190 farmers, of which women accessed $264,635, or 65% percent of the agricultural loans. In the case of ProInnova, this exceeds the parity target of 1:1, however this is a small percentage of the total amount of loans given and includes both small holder farmers and companies. These loans were granted to 80 women for facilitating the adoption of modern technologies in their crops.   Digging deeper into the CEO data available, women received only 18% of loans, with $5 million of loans being mixed sex and not able to disaggregate. CEO provided specialized technical and financial assistance to 37 companies in agricultural value chains to promote their growth and generate benefits for local producers and suppliers in their value chains. This year, CEO also assisted 134 companies that incorporate agricultural chains into their production process and mobilized $6.8 million, exceeding the CEO goal of $4.0 million. Of the total financing, $1.8 million corresponds to financing granted through the guarantee offered by the Ministry of Agriculture GuateInvierte program, which provides a guarantee subsidy to Bank G&amp;T to incentivize lending for agricultural micro-entrepreneurs; this amount is also not disaggregated in tracking.   Looking forward, the financing targets in FY24 and FY25 are $2,024,648 and $1,600,000, respectively. USAID/Guatemala expects that the ProInnova activity, along with the addition of the Rural Financial Inclusion activity will enable it to meet these targets, while both the GEDI and the CEO activities are ending results reporting with FtF in FY23.  The RFI activity will also set a target to increase lending specifically to women.</t>
+  </si>
+  <si>
+    <t>The total number of hectares of cultivated land under improved climate adaptation management practices or technologies is 10,866, which is reported in FY23 based only on FtF ProInnova activity results. The disaggregate of “climate adaptation,” comprises 80% of the umbrella indicator (EG3.2-25) which measures the number of hectares under improved management practices or technologies with USG assistance is 13,529 hectares. There are no targets for the disaggregate of climate adaptation, but the overall targets for improved management practices in FY24 is 14,035 and FY25 is 15,789. These targets are realistic since the current ProInnova activity will continue similar efforts and two new activities will be awarded.    USAID helps farmers adapt to climate change by improving soil and water conservation, drip irrigation systems, reservoir catchment systems with rainwater, high-productivity genetics, and the production and application of bio-inputs and organic fertilizers, and using covered structures, such as mesh houses, greenhouses, macro tunnels and mulch. These practices help reduce farm labor, inputs, weather risks (hail, flooding, drought), and increase crop quality and yield. In total, 34,345 farmers (12,930 of them being women farmers) adopted improved management practices, which is a separate indicator, but highly correlates with the number of hectares reporting new practices.  Additionally, through the Peace Corps, FtF strengthened MAGA’s capacity to provide more effective adult education, including facilitating several learning events among extensionists and community promoters.</t>
+  </si>
+  <si>
+    <t>This target is closely related to the amount of financing accessed that is reported under Section 4, 3.2-27, because the majority of results are from private sector company investments. The CEO activity contributed $4,756,700, which is 83% of indicator results. In particular, the positive deviation is because one of the companies, Conservas y Congelado Ya Esta S.A, that CEO supported with feasibility studies for business expansion, including architectural designs and plans, secured $5 million this year instead of $1 million. This investment had been projected for FY22 but was delayed for FY23. The investment will expand and bring another 1,000 small-scale producers into the company’s production lines and generate 120 new jobs in its factory in Guatemala City. This company produces preserves, sauces, and corn-derived products and sauces for a nostalgia market overseas and for traditional dishes in Guatemala.  The FY 2024 target is $893,000 and FY 2025 is $1,500,000, which are significantly lower due to the close of FtF activities in the CEO project. The primary contributor to this indicator in FY24 will be the ProInnova activity, which is expected to increase their investment promotion in partnership with the new FtF activity, Rural Financial Inclusion.</t>
+  </si>
+  <si>
+    <t>This year, 71% of women participating in nutrition activities have consumed a diverse minimum diet, which is not the HL 9.1d indicator above; this indicator is EG3.3-10b, and c which has the disaggregate of above and below 19 years of age, not specifically WRA.  This number is slightly lower than the target of 81%, and FY24 target is 82% and FY25 is 83%.  The USAID ProInnova activity is the only contributor to this indicator and the total number of women participating in activities was 21,404, of which 15,204 (71%) met the dietary diversity minimum. This was achieved by providing in-person technical assistance promoting a diverse diet, training in the preparation of nutritious recipes, and close monitoring of the families through phone calls and messages with multimedia content. While ProInnova increased the number of households served during FY 2023, the exposure period of households that have received nutrition sensitive activities has been shorter compared to families that have participated for a longer period of time.   Past history shows activities will have an impact on the behavior and consumption patterns of family diets, but that it takes time for families to adopt new diet approaches for long term change. FtF activities are expected to meet targets next year, since dietary diversity is now a focus area for promotion and a broader sectoral and project learning agenda. ProInnova has also formed a partnership with the regional nutrition research institute, INCAP, to monitor more frequently and test different methodologies. In addition, new families will have more time to adopt new behaviors.</t>
+  </si>
+  <si>
+    <t>USAID Honduras</t>
+  </si>
+  <si>
+    <t>The revised GOH National Strategy for Food Security and Nutrition (2018-2030) has significantly progressed in achieving SDG-1 by reducing the percentage of undernourishment to 15.3 percent (2015-2017 PBS data). However, the Honduras Demographic and Health Survey reported in 2019 that 1.4 million people were still undernourished (2015-2017), and 18.7 percent of children under five years of age suffered from chronic malnutrition.  During FY 2023, in response to these challenges, USAID coordinated and mobilized local resources, implementing approaches like the Honduras Ministry of Health-led Community-Based Child Care Strategy (AIN-C). To combat malnutrition resulting from persistent food insecurity and optimize the 1000-day window for the consumption of safe, nutritious foods, USAID trained 729 health promoters and technicians (220 M, 509 F) and strengthened 60 organizations to enhance their monitoring and management capacity for implementing AIN-C. USAID reached a total of 24,919 families, including 7,672 new households, providing critical assistance to pregnant women and reaching 7,543 children under five (3,846 M, 3,697 F) through nutrition interventions.  FY 2023 resources also bolstered Honduran systems and local institutions to expand nutrition outreach, services, and advocacy. USAID collaborated with the GOH Technical Food Security and Nutrition Unit to train and mentor multi-sectoral staff in targeted municipalities and six municipal associations, fostering them to become champions for food security and nutrition under the GOH's National Food and Nutrition Security Policy and Strategy. Finally, USAID supported the GOH’s efforts to activate Large Scale Food Fortification activities to prevent micronutrient deficiencies by providing technical assistance to the Micronutrient Advisory Council, enhancing the implementation of the Food Fortification and Micronutrient Policy.</t>
+  </si>
+  <si>
+    <t>Honduras’ FTF-funded activities surpassed their FY 2023 targets for the value of agriculture-related financing, but fell short in increasing the value of financing accessed by women.  The Mission’s activities targeted $0.38 of finance to women for every dollar financed to men and achieved 40 percent of this target.  While USAID/Honduras’ FTF programs did enhance women's access to agricultural financing, the loan sizes remained smaller compared to those for men. Women accessed only $0.15 per dollar obtained by men, indicating the overall smaller value of loans to women. This pattern aligns with lessons from previous FTF activities, where women typically start with smaller loans that increase over time as they build their working capital during their participation in USAID’s activities. The TMS Activity is more advanced in implementation and successfully boosted the proportion of female beneficiaries who accessed financing to 36 percent, securing $0.18 of financing for every dollar financed to men. Similarly, 33 percent of the Coffee Alliance Activity’s beneficiaries who accessed finance were women and they secured $0.13 of financing for every dollar financed to men. In its second year of implementation, 46 percent of FARMS beneficiaries who accessed finance were women, but the value of their financing was $0.07 for every dollar financed by men. These results align with the Mission’s FTF programming objective to expand women's access to productive resources and credit. However, women still encounter various challenges related to the financial system's eligibility criteria (such as land ownership, collateral, etc.), which requires continued attention.   Based on FY 2023 results, there's a need to revise FY 2024 and FY 2025 targets and explore opportunities to enhance the implementation strategy to accelerate the growth of loan sizes for women.</t>
+  </si>
+  <si>
+    <t>In FY 2023, the Mission’s Coffee Alliance Activity successfully cultivated 17,642 hectares under improved climate adaptation management practices or technologies, surpassing the target of 15,000 hectares by 17 percent. This increased adoption of climate-smart technologies is attributed to the combination of technical assistance that USAID provided to growers as well as the substantial investment capacity resulting from better prices in the previous coffee harvest season. The aggregated targets for FY 2024 and FY 2025 for cultivated land under improved climate adaptation management practices or technologies align with and build off FY 2023 results. However, achieving these targets may be affected by the significant decrease in coffee prices, which are expected to continue declining due to historically high production that is forecasted for Brazil. Nevertheless, the Mission anticipates that it will meet these targets due to increased trust in the quality of services provided to farmers, and the credibility gained after farmers who adopted the new technologies saw increased crop production.</t>
+  </si>
+  <si>
+    <t>USAID/Honduras’ FTF-funded activities achieved their FY 2023 target for leveraging new private sector investment to support food security and nutrition. The Mission leveraged $39,652,780, achieving 101 percent of the target.   In FY 2023, TMS Activity leveraged $28,782,232 from new private-sector investments in food security. For every dollar from the Partnership and Innovation Fund, USAID effectively leveraged $8.56 from the private sector. The Activity’s Transaction Unit played a pivotal role in facilitating investments through existing partnerships and from external investors. Additionally, the Activity's Regional Investment Office in Comayagua acted as an efficient platform to expedite investment processes. In 2023, TMS formed a new partnership with the Ministry for Investment Promotion to expand investment facilitation services. FY 2024 and FY 2025  targets have been adjusted aligned with the higher performance in private sector investment values achieved in FY 2023.  In FY 2023, Honduras’ Coffee Alliance Activity leveraged $2,346,881 from the private sector. This leverage was a result of farmers investing in their farms to apply new technologies introduced through the Activity's technical assistance services. The increased investments directly impacted farm productivity and improved the quality of life for coffee-growing families, fueled by improved market access and higher prices in the 2021-2022 harvest. These factors, combined with improved productivity, boosted revenue from the harvest, enabling farmers to reinvest in their farms and purchase inputs to enhance their coffee plantations. The impact of this investment is expected to manifest through improved yields in the 2022-2023 coffee harvest season.  In FY 2023, USAID’s FARMS Activity achieved $8,523,667 in new private-sector investments through alliances with partners co-investing to enhance food security and agriculture growth. Twenty of the 26 alliances in the FARMS portfolio (77 percent) were established between January and September 2023. Consequently, 77 percent of FARMS alliances operated for less than nine months, with several having less than six months of implementation in FY2023. Investments from these new partnerships are projected to increase in the upcoming fiscal year.</t>
+  </si>
+  <si>
+    <t>N/A. USAID/Honduras does not have any activity that currently reports on this indicator.</t>
+  </si>
+  <si>
+    <t>The target was exceeded by 71% The target was exceeded because the KCDMS and LMS activities, both expected to end in 2022, were extended after the Mission received Ukraine Supplemental funding. KCDMS exceeded its target by US$ 8 million due to the implementation of a farmer Loyalty program (offering discounts to farmers for bulk and repeat purchases) and well-executed radio campaigns and field days, which increased the visibility and popularity of agro-dealers. This heightened market presence effectively drew many buyers seeking fertilizers and, subsequently, led them to purchase additional agricultural inputs from the agro-dealers. The LMS activity exceeded its target for sales by $16 million. This was because of shifting focus from supporting individual farmers to providing economic stimulus grants to food commodity and livestock traders who expanded their enterprises, thereby ensuring a consistent supply of essential agricultural goods and services to the community. The aggregate FY 2024 and aggregate FY2025 targets are less than the Actuals for 2023 by US$ 40 million. The results for FY 2023 are significantly lower than the results for FY 2022 (US$ 105,406,571) because of significantly scaled back budgets and a technical shift for both LMS and KCDMS which had to implement Ukraine Supplemental funding to mitigate the impacts of the global food crisis. KCDMS focused on providing fertilizers to farmers, soil testing and poultry. KCDMS closed in October 2023 resulting in a further drop in targets for 2024. LMS is focused on sustaining operations of the markets and market-based supply of food and will close in mid 2024. New activities have been designed and will begin reporting on this indicator in 2025, because  2024 will mostly be a mobilization year as the activities start ramping up results in 2025.</t>
+  </si>
+  <si>
+    <t>USAID Kenya</t>
+  </si>
+  <si>
+    <t>The target was exceeded by 12% The target was exceeded because the USAID Kuza activity which had initially planned to enable two financial institutions to access $ 2.3 million in finance, was able to provide $ 4.9 million to 6,317 individuals,$ 2.7 million of which went to women. KUZA, through the Impact for Northern Kenya (INK) fund, lends money to financial institutions for onward lending to individual clients raising significant capital.  Initially, KUZA was not aware that it could count individual clients of the financial institutions receiving money from the INK fund, however a clarification from the Mission enabled them to count these numbers, thus the significant increase in the number of clients reported as accessing finance. LMS linked cooperatives with financial institutions, enabling them to gain access to additional funds for lending, expanding their lending capacity (customer base).  Consequently, Micro, Small and Medium Enterprises (SMEs) in Northern Kenya that face obstacles in obtaining finance from banks such as lack of collateral and other stringent bank requirements, were able to secure loans, surpassing the planned target.  LMS linked women-based village savings and loans groups to the cooperatives, enabling more women than anticipated to access finance.  KIM, which was the flagship mechanism reporting to this indicator, came to an end in 2023.  LMS is coming to an end in 2024.  KUZA will continue reporting against this indicator and is driving the target for next year.   The FTF PSA and the FTF LFSare both currently in procurement and are expected to report against this indicator in the coming years.</t>
+  </si>
+  <si>
+    <t>The target was not met by 41% The target was not met because the USAID Nawiri activity did not meet its targets. The USAID Nawiri activity missed its target due to a lot of preparatory systems work. Nawiri has beefed up land reclamation and clearing activities and has proposed to triple the acreage under production to achieve its Y5 targets. KCDMS  activity closed in December 2023 and the LMS activity will close in mid 2024. These two activities historically contributed significantly to this indicator.  However, through the new Water Security, Sanitation and Hygiene (WSSH) and FTF integrated water security activity, STAWI,  FTF funding will achieve 250,000 acres under climate-smart irrigation practices, making up half of the GOK’s goal of 500,000 additional acres under irrigation by 2026. It is anticipated that these new activities will fill the gaps left by the closure of LMS and KCDMS.</t>
+  </si>
+  <si>
+    <t>The target was exceeded because the Scaling the Impacts of USAID Resilience Programming through Local Systems (known as Kuza) activity set its target based on the amount the financial institutions received from the INK fund and matched. It did not include the amount the financial institutions onward lent to individual clients. Kuza also included financing leveraged from external sources other than the INK funds that had not been counted in the previous year.   The mission continues to leverage a considerable amount of capital from the private sector through loans and co-investment. In the reporting year, the Kuza activity leveraged finance through the INK fund, which lends money to financial institutions in arid and semi-arid areas. The financial institutions then lend money to individual clients, who then repay the banks and the banks repay the INK fund. This model of recoverable loans is one the Mission seeks to employ in its future programs, not just in the Kuza activity but in an upcoming private sector investment mechanism as well. The KIM activity, which used to contribute a significant portion of results, came to an end in 2023, accounting for the drop in the target for next year, however, this gap should be filled by Kuza and the new FTF Private Sector Activity.</t>
+  </si>
+  <si>
+    <t>Not applicable for this year.  Data for the PBS was collected in 2023 and is expected to be reported in 2024</t>
+  </si>
+  <si>
+    <t>USAID Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Agro Trade does not use this indicator.</t>
+  </si>
+  <si>
+    <t>Neither Agro Trade nor Advancing Nutrition reported this indicator.</t>
+  </si>
+  <si>
+    <t>This is not one of the approved FTF indicators for Agro Trade, but the 12 local companies that received cold storage support invested a total of $3.1 million while USAID contributed $700,000. USAID’s investments in these partnerships financed refrigeration equipment and local private sector partners funded the overall construction of the cold storage facilities.</t>
+  </si>
+  <si>
+    <t>N/A. Advancing Nutrition reported another indicator “Mean number of food groups consumed by women of reproductive age” close to HL.9.1-d. The indicator result in FY23 is 7 (Mean number of food groups consumed by women of reproductive age)</t>
+  </si>
+  <si>
+    <t>USAID Liberia</t>
+  </si>
+  <si>
+    <t>In FY23, the achievement only reached approximately 13 percent of the $1,610,000 target. This target was initially an estimate set before the Agribusiness Incubator and Development activity's implementing partner had awarded grants to 11 agribusiness partners. The grant awards were finalized in the fourth quarter of FY 2023, with most grantees beginning implementation less than three months before reporting. Each of the 11 grant agreements outlines specific sales targets. While some grantees have already made sales under their agreements, the rest will begin registering sales in FY 2024, following their grant milestone plans. The Mission foresees a significant increase in figures during the next reporting period, driven by results from the two core FTF activities: Feed the Future Liberia Food Security, Nutrition, and Resilience (FSNR) and Agribusiness Incubator and Development.</t>
+  </si>
+  <si>
+    <t>USAID will report on the value of finance accessed by females per dollar of finance accessed by males beginning in FY 2024.</t>
+  </si>
+  <si>
+    <t>USAID will report on the hectares of cultivated land under improved climate adaptation management practices or technologies beginning in FY 2024. The core FTF activity contributing to this result, FSNR, started up in Q2 of FY 2023.</t>
+  </si>
+  <si>
+    <t>In FY 2023, under the Agribusiness Incubator and Development activity, USAID established 11 private sector partnerships that will leverage $13.3 million in private capital over the course of their grant agreements. With these co-investment grants beginning in July 2023, the private sector partners have already invested $819,453 of the committed $13.3 million in FY 2023. The success is tied in to the co-creation approach, allowing private sector partners to expand and scale up their current activities. For the FSNR activity, the activity was awarded in Quarter 2 of FY 2023 and focused on start-up activities for the remainder of the year.  On-farm production will commence in FY 2024 and this indicator will be tracked and reported on during the next reporting period.</t>
+  </si>
+  <si>
+    <t>USAID’s FTF Zone of Influence population-based survey (PBS) is planned for FY 2024</t>
+  </si>
+  <si>
+    <t>USAID Madagascar</t>
+  </si>
+  <si>
+    <t>The production level among RFSA participants has increased this year compared due the positive impact of cyclones which brought rainfall to the drought-stricken areas of Southern Madagascar. Nonetheless,  it was a one-off occurrence and harvest level was not high enough for RFSA participants to generate surplus production they could aggregate for joint sales. Hence the unmet target sales level for FY23. The RFSA will continue promoting drought-resistant crops and climate-smart agriculture techniques to help farmers increase their production beyond the self-consumption requirements.</t>
+  </si>
+  <si>
+    <t>In FY23, the OU did not have any activities reporting on EG.3.2-27 towards this Performance Goal Indicator.</t>
+  </si>
+  <si>
+    <t>RFSAs promoted the use of certified seeds with varieties adapted to the climatic conditions of the Southeast Region, mulching, installation of anti-erosion strip with use of fixative plants, establishment of infiltration and protection canal, installation of living hedges/windbreaks, and agroforestry to optimize the rational exploitation of soil at risk.  However, targets were not met due to the two main factors;   (1)  delayed voucher system did not make certified seeds available for farmers to use; (2)  high rainfall in the Southeast regions hampered the implementation of these techniques. In FY24, monitoring of the replication of promoted technologies will be strengthened to reach the target. The activity will also be set up by local service providers closer to the community to facilitate producers’ access to inputs.</t>
+  </si>
+  <si>
+    <t>USAID Malawi</t>
+  </si>
+  <si>
+    <t>In 2023, Malawi FTF investments managed to trigger sales revenue of $36.8 million against the planned target of $21 million among individuals and firms that were supported through different interventions ranging from improved access to finance, productivity interventions and marketing linkages. This is an overwhelming impact of having good partnerships among producing individuals and off taker firms. The mission intents to scale up effectiveness of FTF market led productive activities in 2024 to reach more value of sales. Indicatively the current target is $1 million but based on FY2023 achievement, the mission will revise this upward based on The Growth Poles project targets which are yet to be completed by the next reporting period. The Growth Poles as a successor FTF flagship activity for Malawi will draw lessons and build on the successes built by AgDiv. The upward target revision will equally see FY2025 targets moving up from $660,000 as The Growth Poles begin to engage even newer partner PSE firms beyond what AgDiv mobilized.</t>
+  </si>
+  <si>
+    <t>Access to finance is one of the key factors that drive PSE to be more effective as one of the constraints in the private sector is access to finance to increase production to meet quality and quantity as demanded by the market. The of financing by females per dollar of finance accessed by males was at $0.72 against $1.04 representing a serious under achievement of over 30% in FY23. While through FTF investments, efforts to have inclusion of females in access to financing were made, the mission needs to explore more intentional ways that do not exclude females from accessing finance for economically productive activities in the ZOI. The outer year targets will not be adjusted downwards based on this achievement; however, the mission will have to examine the interventions that promote inclusive access to financing  by females, removing barriers, building on what is driving change to scale including the private sector partners under The Growth Poles and other mechanisms.</t>
+  </si>
+  <si>
+    <t>The effects of climate change are undermining development efforts and the mission is a leading agency in Malawi in efforts towards climate change mitigation and adaptation. The Mission achieved EG.3.2-25 by 523% that is over 28,000 hectares against the  about 5,500 hectares that was planned. This huge over achievement is attributable to the new partnerships with private sector firms and actors who are already highly willing to invest in climate adaptation management practices and technologies to make more sales and profits while safeguarding future revenue and business sustainability. With huge investments coming in as the growth Poles is rolling up and out, the out-year targets will be adjusted accordingly under the completion of the Growth Poles MEL plan.</t>
+  </si>
+  <si>
+    <t>Malawi as an FTF target country, continues to inspire private sector actors and firms to invest in food security and nutrition based on analysis and technical assistance offered by USG through FTF mechanisms. In 2023 USAID Malawi, met the target of $12.7 million leverage amount by 98%. The Growth Poles will support setting of outer year targets which will be rationalized based on 2023 achievements and set of interventions that were delivered by Resilience Challenge Fund (AgDiv), and AgDiv. Such huge leverage will culminate as a result of unlocking new private sector partnerships, value of value chain commodities, support services and technical assistance to like-minded firms and individuals in the Growth Poles or outside but with clear linkage to growth pole related activities as service providers or offtakers. This indicator performance demonstrates that Malawi is on track on this FTF objective.</t>
+  </si>
+  <si>
+    <t>TBD-Percent of women consuming a diet of minimum diversity (MDD-W)</t>
+  </si>
+  <si>
+    <t>USAID Mozambique</t>
+  </si>
+  <si>
+    <t>The FY 2023 target was significantly exceeded. The actual sales value for FY 2023 amounted to $214,677.29, surpassing the initial target by a substantial margin. This deviation can be attributed to RESINA, PREMIER, and Recover Cabo Delgado activities. Notably, the Recover Cabo Delgado project played a pivotal role through its effective implementation of various initiatives. The project's focus on increasing irrigation systems, distributing seeds, expanding producer participation, and providing training significantly contributed to surpassing the sales target. The success of the FY 2023 performance can be attributed to the following practices:Implementation of comprehensive training programs for producers to enhance their skills and knowledge; Expansion of irrigation systems to improve agricultural productivity and yield; Strategic distribution of high-quality seeds to farmers to enhance crop production; Effective outreach efforts resulting in increased participation of producers in the program. Pivots/Adjustments for Adaptive Management: Considering the outstanding performance in FY 2023, we aim to build upon these achievements by: Scaling up successful initiatives implemented by the Recover Cabo Delgado project to other regions; Continuing to strengthen partnerships with local communities and stakeholders to ensure sustained impact; Conducting regular monitoring and evaluation to identify areas for improvement and adjust strategies accordingly. Explanation for Future Targets: The aggressive increase in targets for FY 2024 and FY 2025 reflects our commitment to building upon the momentum gained in FY 2023. The substantial overachievement in FY 2023 demonstrates the potential for further growth and impact. Additionally, the continued implementation of successful practices and the expansion of our initiatives across regions are expected to contribute to sustained performance in the coming years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a new indicator for the Mission so the calculation is based on incomplete disaggregate data for EG.3.2-27 - Value of agriculture-related financing accessed as a result of USG assistance. In FY 23 Men accessed $1,574,143 and women accessed $199,038. There was $ for every dollar accessed by males, females accessed approximately $0.1264. While we exceeded the target for the value of agriculture-related finance, we did not meet the target for the value of finance accessed by females per dollar of finance accessed by males. We will ensure that the disaggregates are completed in FY 24 to ensure a more accurate representation.    </t>
+  </si>
+  <si>
+    <t>The disaggregated data for this indicator does not allow us to accurately report. However, in FY23  the hectares of crop land under improved technologies was 6071.5 hectares. While not specified in the disaggregated dates, these are hectares under improved climate adaptation management practices. Promising practices promoted under our activities included the adoption of improved climate adapted seeds, intercropping of drought tolerant leguminous crops for soil fertility, composting soil fertility management practices. The Mission is working on improving the disaggregation of the specific climate smart and resilient agriculture innovations and practices being adopted.</t>
+  </si>
+  <si>
+    <t>This indicates successful engagement with the private sector, surpassing expectations. The FY2024 and FY2025 targets have been set at $6,027,000.00 and $6,474,500.00 respectively, anticipating a continued upward trend in private sector investment. Overall, this indicator remains critical for measuring private sector engagement and its contribution to inclusive economic growth, promising practices include linking USG interventions with addressing gaps in the value chain and collaboration across USG interventions to identify incentives and attracting private sector investment to address development needs.</t>
+  </si>
+  <si>
+    <t>N/A PBS has not been conducted</t>
+  </si>
+  <si>
+    <t>USAID Nepal</t>
+  </si>
+  <si>
+    <t>This indicator is reported as an aggregate figure of results reported by Mission FtF funded activities.   FY 2023 Target= $31,726,384 FY 2023 Actual = $62,307,987 FY 2024 Target = $36,426,666 FY 2025 Target = TBD  Mission exceeded its FY 2023 target, deviation is explained by the cautious FT 2023 targets from KISAN II.  Based on the underachievement in FY 2022 and the unseasonal rain and landslides in October 2022, KISAN II set conservative targets. Also both KISAN II and NSAF were winding down. In FY 2023, agri-inputs market normalized, and COVID-19 impacts also diminished to a great extent. Additionally, Nepal did not experience extreme climate events such as the 2022 unseasonal rain. FY 2023 turned out to be a favorable year for the farmers leading to an increased production and sales. With the focus on using climate information, especially after erratic rain and landslides in October 2022, producers increased their awareness about the usefulness of climate and risk reduction information in farming practices. As a result, there was increased demand for training and the allocation of hectares under improved management and practices that promote improved climate risk reduction and/or natural resources management with USG assistance. KISAN II expanded farmers’ access to irrigation and helped them diversify and intensify production of rice, maize, and high-value vegetables. In addition to irrigation support, farmers also received training on the use of water from irrigation. Farmers who received irrigation support and training allocated more area for increased productivity, resulting in increased sales. KISAN II  also facilitated linking farmer groups with aggregators and rice mill partners to improve farmer sales. Recognizing the challenges faced by farmers in obtaining competitive prices and markets for their produce, KISAN II established a crisis communication mechanism, which facilitated direct communication between farmer groups and traders, helping farmers access alternative markets during peak production seasons.   At the firm level, exceptional results are attributable to an increased demand for agri-inputs linked to the expanded cultivation areas associated with targeted commodities. Several agrovets have also started to deploy commission-based sales agents to the field. Meanwhile, rice millers began operating on a low inventory model, in which they procure and process paddy only after they receive orders from their buyers. KISAN II partnered with larger firms, increasing the average sales, of which 94 percent came from small and medium enterprises and the remainder came from microenterprises.  The FY 2024 target has been set low because KII and NSAF will end in FY 2024. The newly awarded Agriculture Inputs and other FTF activities that are currently under procurement will contribute at a broadly similar scale in FY 2024 and beyond.</t>
+  </si>
+  <si>
+    <t>This indicator is reported as an aggregate figure derived from the disaggregates reported by FtF funded activities. The two flagship activities KISAN II and NSAF reported results for this indicator in FY 2023.   FY 2023 Target= $0.53 FY 2023 Actual = $0.41 FY 2024 Target = $0.95 FY 2025 Target = TBD  The FY 2023 results were 77 percent of the year’s target. In FY 2023, more females received agriculture loans; however, the value of loan was smaller compared to the loan taken by male participants. Women were found to be less active in commercial production and were also less likely to take loans and bear financial risk due to the increased rates on deposits as a result of the severe liquidity crunch in the first half of FY 2022/23. This liquidity crunch forced Nepal Rastra Bank to increase interest rates on deposits as well as lending.   Both KISAN II and NSAF will end in FY 2024 but the newly awarded Agricultural Inputs activity will contribute to this indicator and have set outyear targets.</t>
+  </si>
+  <si>
+    <t>This indicator is reported as an aggregate figure of results reported by FtF funded activities.   FY 2023 Target= 19,327 FY 2023 Actual = 23,870 FY 2024 Target = 19,000 FY 2025 Target = TBD  In FY 2023 Mission exceeded its target of 19,327 (Actual: 23,870). Deviation was mainly due to KISAN II over achieving its target. Through its partnership with 24 private sector partners, KISAN II promoted new technologies, innovations, and improved practices that facilitate commercial agriculture.    Adverse impacts from unexpected rains during rice and vegetables harvesting in December 2022 were not evident in 2023.  FY 2023 proved to be more favorable for agriculture and farmers sought to recover last year's losses by increasing their production area and applying improved management practices and technologies. In addition, normalization of supply chains and improved market linkages with farmer's confidence contributed to larger production areas. KISAN II partners also worked with farmers, enabling them to cultivate larger areas of rice and maize than anticipated.   The outyear targets have been set low mainly because KISAN II and NSAF which are the major contributors will come to a close in FY 2024. The newly awarded Agricultural Inputs activity will contribute to results in FY 2024 and outyears.</t>
+  </si>
+  <si>
+    <t>The Mission exceeded its FY 2023 targets for this indicator. Through its partnership with 24 private sector partners, KISAN II promoted new technologies, innovations, and improved practices that facilitate commercial agriculture with an emphasis on engaging women, youth, and marginalized groups as target participants. KISAN II closed operations in many of its districts in FY 2023, and part of its exit plan is to strengthen relationships between private sector partners and select municipalities. This approach will allow both parties to build on the KISAN II market systems model and channel public sector support to farmers through expanded public-private sector engagement. KISAN II partners also led 33 municipal-level briefings and 17 joint monitoring visits, strengthening the relationship between private sector and municipal officials, deepened their understanding of the private sector-led approach, and leveraged support for activity implementation. All this resulted in  municipal, provincial, and federal governments investing $612,104 of public funding for irrigation, seeds, pesticides, women-friendly machinery, drying and storage facilities, and digital weighing scales. KISAN II will end in FY 2024 hence the low target. However, new FtF activities that were recently awarded or are currently under procurement will contribute results at a broadly similar or greater scale in FY 2025 and beyond.</t>
+  </si>
+  <si>
+    <t>According to the FY 2022 midline interim survey, about half (48%) of the women in the Nepal Phase-2 Zone of Influence achieved women’s minimum dietary diversity, with no change between the baseline (48%) and midline. between baseline and midline (data not shown). As shown in Figure 13, all women of reproductive age consumed grains, roots, and tubers, and eight out of ten women consumed legumes and beans at both baseline (79%) and midline (78%). About a third of women consumed dairy products (baseline: 37%, midline: 34%), dark green and leafy vegetables (baseline: 36%, midline: 40%), and other vitamin A rich fruits and vegetables (baseline: 32%, midline: 33%). The percentage of women who consumed “other” fruits (those not rich in vitamin A) decreased significantly, from 81% (baseline) to 72% (midline). However, the percentage of women eating “other” vegetables (those not dark green and leafy or other vitamin A rich vegetables) increased significantly, with almost half of women reporting eating “other” vegetables at midline (baseline: 30%, midline: 46%).</t>
+  </si>
+  <si>
+    <t>USAID Nigeria</t>
+  </si>
+  <si>
+    <t>The value of annual sales exceeded the target due to increased demand for agricultural products and successful implementation of marketing strategies. Heightened awareness among farmers led to a notable surge in the adoption of promoted agricultural technologies, consequently bosting both yield and sales volume. In addition, high yields from improvements in production efficiency and product quality contributed to higher sales figures. Further, adoption of aggregation and off-takers models streamlined distribution channels and increase market reach, which significantly influence high sales recorded. Inflationary pressure influenced by macro indices such as rising commodity prices, increased production costs and currency fluctuations, led to higher product prices. However, rather than dampening demand, consumers purchase larger volumes, seeking to secure agricultural produce before further price increases. One key lesson from this deviation is the importance of closely monitoring and adapting to macroeconomic indicators, particularly food inflation, which can significantly impact sales performance. Going forward, market-led demand -driven business models that have been successful will be upscaled.</t>
+  </si>
+  <si>
+    <t>This achievement suggests a positive trend towards gender equality in financial inclusion, indicating that efforts to bridge the gap between men and women in accessing financial services have been successful. It implies that more women are gaining access to banking services, credit, savings, and other financial resources, which have wide range socio-economic benefits such as empowering women economically, promoting entrepreneurship and fostering economic growth. The strategy that has proven to be successful is the engagement with several financial and non-financial institutions to invest in input credit financing model which is increasing the number of clients accessing agricultural finance.</t>
+  </si>
+  <si>
+    <t>Target for hectares under climate adaptation and risk management practices was overachieved due to heightened awareness among farmers, extensive training programs, and the adoption of innovative agricultural techniques. Interventions such as demand stimulation campaigns, video-enabled extension, promotion of digital applications (like RiceAdvice App and Field Area Measure), input financing, biofertilizer demonstrations increased the total hectares under improved technologies and climate adaptation/climate risk management practices.</t>
+  </si>
+  <si>
+    <t>This success can be attributed to several factors, including robust collaboration frameworks, clear value propositions for private sector partners, and ability to align mutual interest and goals. For every 1 dollar invested from USG, at least 2 dollars have been catalyzed from private sector partners. This proves the value for money of investing USG on impact and scale in communities through private sector facilitation approach.</t>
+  </si>
+  <si>
+    <t>USAID Pakistan</t>
+  </si>
+  <si>
+    <t>There was only one FTF activity, THAzA, contributing to this indicator; the FY2023 target was unmet. The activity worked for only one quarter and then ended. It could not achieve the sale targets during the quarter as high value grants for cold storages, pack houses, packaging industry were completed in the last quarter of the activity and sales data for these interventions were not generated due to delays in implementation. The second contributing activity was the fruit orchards which started fruiting but the trees were young/small and the production  volume was less due to which the target remained under achieved.  There are no out years as the activity contributed to this indicator ended during FY 2023.</t>
+  </si>
+  <si>
+    <t>N/A - Pakistan Mission is not reporting on the indicator</t>
+  </si>
+  <si>
+    <t>The targets for FY2023 was 76,552.4 hectares and achievement was 38,981.79 hectares. The FY 2023 target was unmet. The main reason for under-achievement was attributed to the delays in the  government-to-government Gomal Zam Dam Command Areas Development Project (GZD-CADP) due to the law and order situation and changes in the provincial government. The provincial assembly was dissolved and a new caretaker government was in-place which froze developmental funding due to financial crises. Moreover, due to delays caused by the flood in 2022, the government and USAID extended the project to September 2024. With this extension the backlog and planned targets are expected to be achieved.  The FY 2025 targets are low as most of the activities contributing to this indicator are closing during FY 2024. These targets will be adjusted during FY 2024 based on additional information related to ongoing and new activities that will start implementation.</t>
+  </si>
+  <si>
+    <t>N/A - The Pakistan Mission is not reporting on the indicator.</t>
+  </si>
+  <si>
+    <t>USAID Rwanda</t>
+  </si>
+  <si>
+    <t>The main driver for higher than expected results in FY 2023 was due to the Orora Wihaze activity’s expansion of interventions assisting firms in the Animal source food (ASF) sector. Orora Wihaze is the main contributor to high achievements on the value of annual sales receiving USG assistance as a result of gains generated from its market system approach and therefore meaningful engagement with local actors. Results for Kungahara Wagura Amasoko will not be available before the end of the calendar year which is the host country fiscal year and Hinga Wunguke was awarded in August 2023 with no target set for FY 2023.  In FY 2024, Kungahara Wagura Amasoko, Hinga Wunguke and Entrepreneurship &amp; Employment Activity  will report on this indicator.</t>
+  </si>
+  <si>
+    <t>There are two facts for why there is FY 23 actual are much lower than the set targets. The first is that the actual results, mainly coming from Orora Wihaze, reflect the actual disparity for females in accessing finance compare to males when they all operate from an informal business perspective. Secondly, Kungahara Wagura Amasoko which supports financial institutional to increase their lending in agriculture is working with partner banks to provide disagregated data per sex. And we believe, we will be able to get actual targets for FY2024 in the coming weeks and therefore results as well. We believe the future projections will be a little bit positive as the gaps between number of females owned exports SMEs and the number of males owned SMEs is a little smaller. We will also follow up with new activity such as Hinga Wunguke to capture sex disagregated (by sex) results and therefore related targets.</t>
+  </si>
+  <si>
+    <t>During FY 2023, the  number of hectares under improved management practices or technologies with USG assistance decreased significantly compared to last year (from 35,968 to 1,131.86) because the main contributors Hinga Weze closed and Tera Imbuto Nziza was winding down, while the new Hinga Wunguke Activity is just starting.   In FY 2024, Hinga Wunguke will  help to climb the curve toward reaching the same level in FY 2025.</t>
+  </si>
+  <si>
+    <t>The main driver of the higher than expected results in FY 23 was due to the expansion of 2 FTF activities out of three which were at their last years of implementation. The indicator is also a new indicator for which one of the FTF activities didn’t have a target by the time it was introduced. Orora Wihaze, in its fourth year of implementation, had expanded its partnership base with and technical assistance to private SMEs involved in the production of animal source foods through while Kungahara Wagura Amasoko (KWA), an FTF activity in its mid-way implementation and which supports increased access to private investments to high value ag export companies underachieved by 22.5%. Thus KWA’s underperformance is mainly due to SME partners particularly in horticulture that have been struggling to attract investments/access to finance as a result of negative impacts of the Ukraine invasion by Russia on transportation costs. Nguriza Nshore registered a high result of $7,853,206 in FY 23 and there is no target as this indicator was new and had no target associated by the time it was introduced. Hence the final high result for this indicator against a target of $4.8 Million.   In FY 2024, Nguriza Nshore will not report against this indicator as it closed on April 3,2023. Orora Wihaze, Hinga Wunguke and Kungahara Wagura Amasoko will contribute to this indicator.</t>
+  </si>
+  <si>
+    <t>USAID Senegal</t>
+  </si>
+  <si>
+    <t>The Nafoore Warsaaji activity doubled its FY 2023 target of $4,300,000 and Dekkal Geej activity registered a total sales of $85 million against the target of $78 million.  Practices/Factors contributing to this performance :  The Nafoore Warsaji activity's successful approach is based on an innovative fund for co-investment in SMEs and the  scaling up the horticulture hub approach that connected more smallholder farmers and SMEs to markets. This approach successfully addresses gender gaps by having market entry points instead of an on-farm entry point in reaching women producers.  Reasons for difference between FY 2023 Actual and Aggregate FY 2024 and FY 2o23 targets : As the Dekkal Geej activity that contributed to more than two third of the portfolio targets and actuals, is closed in December 2023 and given that the next ocean and coastal activity is currently under design and will not start registering supported sales in FY 2024, the portfolio’s future targets will not be sustained or improve upon existing performance ($52,471,935 for FY 2024 and $72,000,000 for FY 2025). The Dooleel Mbay activity’s expected doubling of sales ($41M) in FY 2024 and then tripling of sales ($61M) in FY 2025 will not be sufficient to fill in the gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Men received $20,586,808 while women only accessed $5,131,609. However, only one activity disaggregated the data and the results showed that the value of finance accessed by females per dollar of finance accessed by males (derived from EG.3.2-27) is 0.25 versus a target of 1. This deviation is partly due to an unrealistic target particularly for male dominant value chains such as irrigated rice. The former value chain activity sex disaggregation of EG.3.2.27 in 2015 had a value of 0.11 (FTFMS archive for Naatal Mbay and PCE).  Pivots/Adjustments to be taken:  The FTF Senegal baseline for this Performance Goal Indicator is 0.12 and the FY 2030 target is 1. An annual progression of 0.11 is now set for next year's targets. Performance related to this indicator will be driven by the coming nutrition Locally Led Development Annual Program Statement activities (replacing former Kawolor), Nafoore Warsaaji, and Dooleel Mbay. The focus of the new GFSS country strategy on women economic empowerment will contribute to improved progress.  </t>
+  </si>
+  <si>
+    <t>FY 2023 target met (-2%) Deviation narrative : N/A  Practices/Factors contributing to this performance : FY 2023 targets and performances were the results of three FTF activities: Dooleel Mbay, Nafoore Warsaaji and WATIH. Dooleel Mbay that represented 92 percent of the performance, supported adaptation and climate risk management for cereal and horticulture value chains by promoting drought, conservative agriculture, resistance seeds, access to climate information and to climate insurance. Nafoore Warsaaji also promoted climate insurance and facilitated the installation of 454 solar pumping kits, which reduced the high dependency on rainfall.</t>
+  </si>
+  <si>
+    <t>FY 2023 target Exceeded (+59 percent)  Deviation narrative : This high positive deviation is largely attributed to heavy spending by AgroBoye (a local agribusiness SME and WATIH grantee) to develop its network, acquire the best quality raw material, and reinforce its operational capacities. Within the fiscal year, AgroBoye purchased over $10m of raw materials for the production of livestock and poultry feed. With this achievement, the WATIH surpassed its current Life-of-Award target.  Practices/Factors contributing to this performance : The successful co-investment approach and the integrated finance mechanism will be scaled up with Dooleel Mbay targeting MSMEs that contribute to the local economy.   FY 2024 and FY2025 target values vs. FY 2023 Actuals: Targets were set without taking into account the exceptional FY 2023 actual results with AgroBoye (a local agribusiness SME and WATIH grantee.</t>
+  </si>
+  <si>
+    <t>The 2022 population-based survey (PBS) revealed 39.9 percent of women of reproductive age were consuming a diet of minimum diversity (MDD-W) (HL.9.1-d) in the ZOI, showing a deterioration of this indicator compared to the 58 percent registered in the 2015 PBS. The 2022 surveys were done just after COVID-19 pandemic, resulting in a seven-year survey interval instead of the three year interval used for past PBSs. From 2018 to 2022, FTF Senegal achieved 97.1 percent of female participants of USG nutrition-sensitive agriculture activities consuming a diet of minimum diversity [IM-level] after five years of implementing Kawolor (note: this activity closed in November 2022). However, Kawolor covered less than 100 communes among the 129 communes of the ZOI and did not impact the whole ZOI population considered during the PBS. Also, Kawolor only reached 180,453 women as a denominator of this indicator while the Life Of Project denominator was 207,250 women. The lesson learned is that to have a significant impact at the ZOI level, the activity must increase its target for the specific indicator.</t>
+  </si>
+  <si>
+    <t>USAID Somalia</t>
+  </si>
+  <si>
+    <t>USAID South Sudan</t>
+  </si>
+  <si>
+    <t>Target was exceeded by $630,000 due to the following reasons  i) Increase in the number of participants and the expansion of the Activity to four additional Counties. ii) Distribution of ox ploughs and the use of tractors to clear larger farmland, leading to increased number of hectares brought under cultivation and thus improved harvest and higher sales. iii)  Training in good agronomic practice led to greater yield and sales. vi) Improvement in the Post Harvest Monitoring System where most participants were trained in capturing of the sales data.  The FY 2025 target is high because participants were provided with the skills and knowledge on good agronomic practices,, supplied with modern farming tools, quality and improved seeds and farming as a family business including record-keeping to accurately capture sales records.</t>
+  </si>
+  <si>
+    <t>The Mission does not report on Indicator number: EG 3.2-27</t>
+  </si>
+  <si>
+    <t>Farmers were provided with skils, Knowledge, and  modern farming tools such ox plough, tractors among oth</t>
+  </si>
+  <si>
+    <t>This is a new indicator adopted by the RASS Activity in the first quarter of FY 2024. There is no data for FY 2023. FY 2024 Target = $ 50,000 FY 2025 Target = $ 100,000 The FY 2025 target is high because by that time, our value chain products (Shea and Honey) will be exported to the regional and international markets in addition to the current sales in the local market..</t>
+  </si>
+  <si>
+    <t>The results achieved in FY 2023 was 63% of women of reproductive age consumed the diet of minimum diversity. This significant positive shift in dietary habits among female participants was due to training and Social Behavior Change messages shared with the participants in the target counties.</t>
+  </si>
+  <si>
+    <t>USAID Sudan</t>
+  </si>
+  <si>
+    <t>USAID Tajikistan</t>
+  </si>
+  <si>
+    <t>The FY23 target was exceeded. The aggregate target was exceeded due to ACAT reaching 324% of its target as equipment distributed to ACAT partners resulted in a significant increase in sales of value added and higher value products. The other activities reporting against this indicator, MDRD and ALG, did not meet their individual targets. For MDRD, this indicator was affected by the delay in onboarding the required number of partners. While one of the firms did show a remarkable impact in terms of an increase in sales, it was not adequate in terms of overall performance for this indicator. For ALG the interventions were only initiated in FY23 and the partners will not reach full capacity until FY24. Future fiscal years see an increase then decrease in targets for value of sales as the ACAT activity closed in FY23 and the last reporting year for ALG is FY25.</t>
+  </si>
+  <si>
+    <t>The FY23 target was exceeded. The major activity contributing to this indicator was ACAT which not only exceeded the total value accessed by both males and females but far exceeded the total number of females accessing finance with a FY23 target of 70 females yet an actual of 95 females. Working through five local financial institutions, ACAT disbursed a total of $438,405 in FY 2023 versus an annual target of $150,000. This performance represents an over-achievement as the project reached 292% of its annual target. Encouragingly, more clients were able to access loans from ACAT partner financial institutions (FIs) resulting in higher results against target than anticipated.  However, access to finance by women remains one the biggest challenges in engaging women in interventions implemented by USAID in ZOI. High interest rates are the top barrier impeding women getting loans from financial institutions. The second one is a collateral requested by many financial institutions to borrow money, but many villagers have no valuable items to use as collateral. Lengthy and complicated procedures  for getting loans and long travel distance are other obstacles depriving women from these services.</t>
+  </si>
+  <si>
+    <t>The FY23 target was not met. Only one activity reporting this indicator, ALG. However, the target for this indicator was set in Y1 based on projected rates of adoption from farmer field school training and irrigation infrastructure rehabilitation works. During FY 2023, the Activity changed from activity-led training to private sector-led Farmer Field Days, where local input suppliers provided instruction to over 12,000 (unique) farmers; all of whom reported adopting one or more of the new practices/technologies on their agriculture lands (10,834 hectares) based on the annual survey.  The Activity also supported the improvement or establishment of 168 hectares of new orchards or vineyards in FY 2023.   The Activity also completed the second round of food security input distributions to 25,000 vulnerable households.  Based on the annual survey 12,572 households reported adopting new practices (either planting techniques, timing or use of fertilizer), however as each household only received inputs for up to 0.02 ha this had minimal impact on the indicator with 33 hectares under improved management.  Furthermore, the Activity's adoption of household level poultry, rabbit breeding and mushroom production do not contribute hectares; and due to the funding constraints, the Activity was asked to discontinue any irrigation infrastructure rehabilitation work in FY 2023.  Hence, while the Activity exceeded the targets for individual adoption rates (EG3.2-24) of new practices, it fell slightly short of the expected hectares as not all project activities contribute to hectares under new management practices.</t>
+  </si>
+  <si>
+    <t>The FY23 target was met. Three activities contributed to these results: ACAT, MDRD and ALG. ACAT reached 140% of its target but ALG and MDRD did not. All ACAT partner enterprises demonstrated motivation and willingness to invest more in the business - from funding working capital to investments in new facilities to accommodating future business expansion. This business expansion allowed ACAT to exceed its target on investment leverage. ALG did not meet its target only because the majority of the activity’s leveraging is expected to come from new market systems development activities with larger contributions from private sector firms that will expand in FY24. MDRD did not meet its target because selection of the appropriate partners and support took more time than expected.</t>
+  </si>
+  <si>
+    <t>During FY 2023, USAID conducted a Population Baseline Survey to gauge the impact of a decade-long Feed the Future  program in ZOI. To assess changes in dietary quality over time, the survey looked at dietary diversity based on two types of data: (i) respondent’s diet diversity based on a 24-hour recall; and (ii) household-level diet diversity based on answers to the food consumption expenditure module that spans food consumption of all household members in the past 7 days preceding the survey. When considering individual dietary diversity scores the survey didn't find a significant change in the mean dietary diversity score. Similar to 2015, about 30% of female respondents had inadequate diet diversity in 2023. However, the survey  saw a major shift away from less expensive protein-rich products - pulses, seeds and eggs - towards more expensive sources of protein - meat, chicken or fish (Table 5). More specifically, the share of female respondents who consumed meat, chicken or fish in the past day increased from 31% to 43%. There is also a sizeable drop in women consuming Vitamin A rich fruits and vegetables (from 68% to 56%), a large increase in the consumption of other vegetables (from 19% to 54%) and a small increase in consumption of green leafy vegetables (from 24% to 28%).</t>
+  </si>
+  <si>
+    <t>USAID Tanzania</t>
+  </si>
+  <si>
+    <t>USAID Timor Leste</t>
+  </si>
+  <si>
+    <t>USAID Uganda</t>
+  </si>
+  <si>
+    <t>USAID Zambia</t>
+  </si>
+  <si>
+    <t>USAID Zimbabwe</t>
+  </si>
+  <si>
+    <t>West Africa Regional Program</t>
+  </si>
+  <si>
+    <t>In FY2023, USAID/West Africa targeted $65,218,902 of new private sector investments to be leveraged but achieved $47,550,585. The target was not met due to challenges faced by the SERVIR West Africa project in achieving its contribution to the target. They struggled to obtain the total investment amounts leveraged by the project from the Niger Association of Fertilizer Dealers. Additionally, obtaining transaction and financial data from private sector partners posed challenges. Historically, private entities have been reluctant to disclose detailed transactional information, viewing such data as sensitive and competitive. This reluctance has resulted in a scarcity of the data necessary to accurately quantify the leverage impact.  In FY24, USAID/West Africa, through its implementing partners, will focus on strengthening relationships with private companies to foster more trust and transparency. This approach aims to encourage private companies to expedite their internal data reconciliation and disclosure processes. It is believed that strategic engagement and the establishment of a mutual understanding of the long-term benefits will encourage more forthcoming data sharing. The mission has set the FY2024 target for private sector investments to be leveraged at $45,610,584. This target is lower than the actual for FY23 due to the fact that two projects (WATIH and SSI) contributing to this indicator will be ending in 2024.</t>
+  </si>
+  <si>
+    <t>USAID/West Africa had targeted 9,000 hectares of land under improved climate adaptation management practices or technologies but achieved 5,298 hectares.  Due to logistical challenges the West Africa Trade and Investment Hub (WATIH) project was unable to complete data collection in all five countries of implementation by the end of the reporting period, leading to this shortfall. Efforts are currently underway to collect the missing data, which is expected to be available by the end of quarter 2 of FY24. It's important to note that the project is scheduled to end in 2024. The SERVIR WA 2 project also experienced delays in deploying some services (P-Locust, Farmer Managed Natural Regeneration mainly) in the field, impacting the application of improved management practices or technologies by end-users. These delays were due to administrative and programmatic constraints faced by certain members of the consortium, particularly related to the sub-awards establishment processes at ICRISAT, the lead partner. Sub-awards are based on approved Annual Work Plans and are made by amendments to existing memoranda of agreement between ICRISAT and the other consortium members. This process was lengthy, involving completing memoranda of agreements, drafting amendments, and obtaining USAID approval, which delayed progress during the fiscal year. To address this and meet the FY2024 target, the SERVIR team has implemented measures such as funding consortium members as early as possible, developing a dashboard to monitor their activities and deliverables, and organizing monthly meetings with service leads to address issues promptly.  For FY2024, the mission is targeting 37,500 hectares contingent upon data availability from Trade Hub surveys, which will be completed in Q2 of FY2024.   Additionally, SERVIR Activity's services will be deployed and used or applied by end-users, allowing the Monitoring Evaluation and Learning team to conduct field surveys to collect data and evidence on the improved management practices or technologies used/applied.</t>
+  </si>
+  <si>
+    <t>In FY2023, USAID/West Africa, through the West Africa Trade and Investment Hub (WATIH) project, achieved $72.0 million in sales, surpassing the target of $60.9 million. The reported data includes sales made by various companies, such as Koster Kuenen, which received grant facilities directly from the Trade Hub; export-ready private sector companies like ANI, which received technical assistance from the Trade Hub; and other private sector companies like SITA, which received funding through financial advisory firms supported by Crossboundary and the Trade Hub. WATIH exceeded its sales target partly as a result of the multi-dimensional approach it has taken to partner with private sector actors in the region. WATIH’s private sector partnerships go beyond direct grants to private sector producers to support production and processing, to grants to financial institutions and financial advisory firms that facilitate access to finance, market linkage support and other targeted technical assistance to help increase sales.   For FY2024, the mission is targeting $71 million in sales based on projections from supported grantees and technical assistance directly provided by the Trade Hub. These projections are lower than the FY23 actuals due to the fact that the project will end in 2024.</t>
+  </si>
+  <si>
+    <t>In FY2023, USAID/West Africa aimed to provide $143,319 in finance to female program participants but exceeded this target by achieving $168,593.22 in finance accessed by these participants. This success was attributed to the improved ability of female cooperatives to engage with formal financial institutions. Throughout the reporting year, the cooperatives benefited from training and technical assistance provided by the FtF-supported project Sustainable Shea Intensification (SSI), resulting in better formalized structures. This enabled them to establish relationships with various formal financial institutions and secure more pre-financing for their work, particularly in shea aggregation.  For FY2024, the Regional mission is targeting $15,000 in finance to be accessed by women participants. This lower target is due to the end of the Activity in June 2024.</t>
+  </si>
+  <si>
+    <t>NA - - Not a target country</t>
+  </si>
+  <si>
+    <t>Total private sector investment amounted to $3,134,319 against a target of $7,600,00. There was an under performance on this indicator as the target set was deemed over ambitious with no adequate measures put in place to incentivize private sector actors to form public private partnerships. Past experience shows that it takes a relatively long time to attract the private sector and bring it on board to invest.  Some pivots/adjustments that the Mission has put in place to address this as part of the adaptive management include encouraging activities to reach out to private sector partners towards forming realistic and mutually beneficial partnerships. The Mission is also directly reaching out to private sector partners to explore partnership opportunities. A market systems development training for Mission Staff is also being pursued.  Aggregate FY 2024 and aggregate FY2025 target values are more than your FY 2023 Actuals.</t>
+  </si>
+  <si>
+    <t>Total hectarage under Climate Adaptation and Risk management practices was 106,064 hectares against a target of 85,886 hectares. The target was exceeded.  This was due to trained Facilitators (lead farmers) reaching out to more farmers on improved technologies than expected, which raised the interests of many farmers. Additionally, government through the public extension officers also appreciated the results from the FY 2022 pilot and influenced farmers to apply improved management practices and technologies on their farms. These developments have resulted in the increase in the number of hectares under improved management practices and/ or technologies.  Some successful or promising practices that contributed to this sustained or improved progress that Mission is incorporating into ongoing adaptive management include a focus on sustainable training of facilitators to ensure the continuous training of smallholder farmers beyond the end of the activities.  The underperformance of some of the activities is largely attributed to high temperatures, low and erratic rainfall distribution that resulted in delayed planting, poor germination, and crop establishment across the operational districts. This influenced the reduction in the planned area under production by beneficiary farmers. As a result, the Mission is exploring Pay-as-you-go irrigation systems and water harvesting options to increase availability of rainfall within these districts.  Aggregate FY 2024 and aggregate FY2025 target values are more than the FY 2023 Actuals.</t>
+  </si>
+  <si>
+    <t>The value of finance accessed by females per dollar of finance accessed by males was $0.75 against a target of $1.0. The target was not met.   The target was not met due to the poor economic environment coupled with unfavorable monetary policies (high interest rates for borrowers) that negatively affected farmers' access to finance.   Some pivots/adjustments that Mission is taking to address this as part of our adaptive management is scaling up the Village Savings &amp; Lending Loan Schemes to enable smallholder farmers to have access to funds that could be used as down payments in accessing loans or for outright purchase of farm inputs. The Mission is also designing an Access to Finance activity that will explore innovative and creative ways of incentivizing the financial institutions to increase access to credit for our beneficiaries, especially for those able to make down payments.   FY 2024 targets are lower than the FY 2023 actuals due to the time needed for the formation and training of saving groups, and the start up phase of the Mission's new Access to Finance activity that is scheduled to be awarded during the fiscal year.</t>
+  </si>
+  <si>
+    <t>Target was exceeded due to increased training on good agricultural practices resulting in increased production and productivity of selected agricultural commodities such as groundnuts, maize, sunflower, tomatoes, and livestock. Strengthened market linkages of producers to marketers such as ZimGold, Cashel Valley, PrimeSeedco, and abattoirs resulted in increased sales of these commodities. The activities increased their focus on private sector engagement that contributed to more sales than originally anticipated.   Successful or promising practices that contributed to this sustained or improved progress to incorporate into our ongoing adaptive management include increased focus on private sector engagement in order to create markets for the agricultural produce of smallholder farmers, and increased training to be provided to smallholder farmers so that they can increase the production and productivity to meet the demands of the private sector partners.  Some of the activities did not meet this target because of the relatively small farm sizes of some of their farmers, which limited production and the volume for sales. Subsequently, more efforts would be put into aggregation of farm produce towards ensuring bulk volumes that would incentivize marketers to procure at reasonable prices. In other instances, the local informal market for such commodities as Bambara nut and chicken could not absorb all the volume of produce due to market prices not being competitive (for example, traders offered to buy unshelled Bambara nuts at a price range of $2.5 to $3.00 per 20-liter bucket while normal price would have been $4.00 per bucket). Therefore, focus will be on commodities that will command competitive prices so as to incentivize farmers to continue to increase production and productivity of their farms.  The aggregate FY 2024 and aggregate FY2025 target values are more than the FY 2023 Actuals.</t>
+  </si>
+  <si>
+    <t>NA -  The Mission has not yet conducted a PBS for Zambia. However, results  from the SUN midline survey found that 66.6% women in Urban areas and 44.8% women in rural areas were meeting the minimum dietary diversity. Women’s minimum dietary diversity in some of the ZOI targeted districts ranged from 57.2% to 74.9%. Overall, there was a decrease in women’s dietary diversity from the baseline, with women in urban areas consuming 5.2 food groups and those in rural areas consuming 4.3 food groups.</t>
+  </si>
+  <si>
+    <t>This year’s target was exceeded. Success this year on increasing private sector investment was attributed to USAID support to agricultural processors and aggregators, local companies that supply mainly domestic markets with food products. Support to increasing market linkages through “Base-of-Pyramid” (food products for poor people) boot camps in Zambia resulted in 350 new market linkages established and increased sales to new markets (lower and higher end markets). USAID collaborated with the Zambia Development Agency, Farm to Market Alliance to create linkages between food processors and smallholder farmers for raw material sourcing. Through this, USAID linked food processors needing quality raw materials with smallholder farmers, with estimated sales by small scale farmers to processors valued at over $500,000. FtF also supported the growth of women-owned and led businesses. Through collaboration with the Women Entrepreneur Access Centre, ABSA Bank, and Development Bank of Zambia, USAID provided a platform for women business owners, and women in technical or managerial positions to network and learn from each other, to access new services and technologies, and to access finance. Establishing and growing these partnerships was critical to the success of increased private sector investment, in addressing food security and livelihoods. Similar to good performance on increased sales, success of this indicator was attributed to increased engagement with the private sector partners this year. With the activity that contributed to this success closing in Fiscal Year 2024, we do not anticipate reporting on this indicator over the next two Fiscal Years.</t>
+  </si>
+  <si>
+    <t>USAID Zambia’s FtF program exceeded the target for land under improved climate adaptation and risk management practices, through growth of programming with private companies, including support to increase the number of smallholder farmers, and expansion of climate smart agricultural practices and value chains. Two USAID conservation-oriented activities contributed to achieving success this year. Increased investment in climate-friendly honey, cowpea, groundnuts, soybeans value chains (among others) helped to increase soil fertility and increase production. Support for agroforestry production systems helped to create a sustainable, productive landscape that met several conservation and livelihood goals by connecting fragmented forests and creating corridors for wildlife movement. Support to lead and follower farmers programs also led to increased production of nutritious food in vulnerable communities this year. An increased area under improved management fulfills multiple productive goals, improves livelihoods and helps to maintain the integrity of iconic Zambian landscapes. Growing partnerships with the private sector was key this year to this success. The development of new partnerships with private sector-run outgrower schemes helped contribute to higher areas of land under  conservation agriculture than anticipated as new projects hit a two year milestone. As new work continues under these programs and new ones come online in Fiscal Year 2024, we expect a moderate level of performance on this indicator, roughly in line with the 2023 FY target. New partnerships were very successful in achieving this target this year, but we do not expect similar results over the next two years.</t>
+  </si>
+  <si>
+    <t>This target was unmet in Fiscal Year 2023. Despite many successes in increasing access to finance through support to Community Savings and Loans Groups (CSLGs) and SMEs, women still lag behind men in access to finance as larger loans to men-owned businesses overtook many of the small loans that women received through CSLGs. Women still face many difficulties in accessing loans from larger financial institutions, including lack the skills to financially manage businesses and low access to productive assets that can be used for loan collateral. This year, women slightly underperformed men ($0.98 per $1.00 loaned, compared to $) despite the met goal of almost 25% more loans to women, as compared to men this year. Through USAID-supported CSLGs, more than 80% of the over 86 thousand participants are women, but loan amounts were small, negatively affecting this indicator. USAID-supported women’s savings groups in Eastern Province were linked to the Farmers Out-grower Foundation, helping to expand the reach and formalization of investments by CSLGs. Through this partnership, women's savings groups are assured of ready supply of inputs for production as well as markets for the final product, which has been one of the biggest challenges that SMEs face (especially women from rural areas). USAID also supported more formal out-grower schemes this year by connecting CLGSs with a private sector partner that supplied training, fertilizer, and seeds, and a guaranteed market for their produce. Even with these efforts and successes, challenges remain in providing more loans to women, and USAID/Zambia’s loan support programming must adapt to address this challenge. Over the next two Fiscal Years, USAID Zambia expects a reduction in the loan partly due to the closure of two programs that support finance. Successful loans under the CSLGs (which strongly favors female borrowers) will be reduced as FtF Zambia closes the program that supported this effort. A new bilateral program will provide support to CSLGs in the new FtF ZOI, but the award will not start until August 2024. As such, success on this target for the next two fiscal years will be reduced in gender parity to closer to 1:1.</t>
+  </si>
+  <si>
+    <t>In FY2023, USAID/Zambia exceeded annual FtF targets for value of sale increased through U.S. government support. Three USAID activities helped companies expand sales due to increased supply chain, development of new product lines, and by increasing connections with financial institutions. USAID helped with product formulation and market development to increase the supply of nutritious, safe foods, and connected processors with sources of finance, especially for women entrepreneurs. Through collaboration with the Women Entrepreneur Access Centre, ABSA Bank, and Development Bank of Zambia, USAID provided a platform for women business owners, and women to network and learn from each other, to access new services and technologies, and finance. USAID’s SME-support activity hit its stride this year in connecting businesses to finance that led to increased sales for many of the almost 400 SMEs that it supports. USAID profit and revenue targets are also being met, especially when comparing baselined SMEs with those surveyed. With U.S. government support, SMEs have become more efficient, organized, networked and credit/investment ready, following their participation in core USAID activities, be these via the Business Advisor model, access to market business to business models and symposia, and training across multiple need areas. Increased sales and profitability for companies that USAID is supporting has enabled greater access to finance for enterprise expansion and job growth. Specific support to female entrepreneurs is freeing the capabilities and talent of Zambian women to grow their businesses and support more small scale farmers through supply chain development. The USAID SME-support activity that mainly contributed to the attainment of this target indicator this year is expected to have reduced results over the next two Fiscal Years. Two years of lead time was needed to develop SMEs through training and support to banks to make successful loans. While FtF does expect additional connections with finance, this year was particularly successful as one activity saw a maturation in SME pipeline development, but we do not expect this trend to continue in FY 2024 and 2025. One of the contributing activities to this indicator will close in FY 2024, and the design of a follow-on project (centrally designed) means that there will likely be a gap in programming. FtF Zambia does have a new bilateral program under design (award planned for August 2024) that will complement the new centrally designed award, likely to begin in FY 2025, but located specifically in the FtF Zone of Influence. FtF Zambia will seek to  limit programmatic gaps as much as possible, while it shifts geographic focus to the new ZOI.</t>
+  </si>
+  <si>
+    <t>Exceeded +113 percent ; Achievements for this indicator are 113% above the target. The Mission overachieved on this target because some existing activities did not set FY 2023 targets. In addition, the regional Trade and Investment Activity (ATI) started mid-year in April 2023, and the Strategic Investment Activity (SIA) started reporting on the indicator in Q4 of FY 2023. However, both of these activities contributed results for this indicator while their contributions were not part of the Mission FY 2023 targets. : Four activities currently reporting on this indicator will continue to report on it in FY 2024 and beyond. Two activities which started reporting late in FY 2023 have set the targets for FY 2024, progress towards this indicator will be reported in the coming years. The activity which underperformed in FY 2023 is scaling up its operations and expects an increase in the value of private investments leveraged, laying the foundation for potential growth next year.</t>
+  </si>
+  <si>
+    <t>Unmet: -36 percent ; If you did not meet your target, describe what pivots/adjustments you will take to address this as part of your adaptive management: The two RFSAs that were the major contributors for this indicator closed in FY 2023 and one of the activities did not report on this indicator leading to underperformance. A new food and water system activity launched in October 2023 will start contributing to this indicator. Another activity is also scaling up its work with a small scale irrigation equipment suppliers to reach more beneficiaries. The outyear targets are lower than FY 2023 targets because the new water and food systems activity will have a slower start during the first two years and will improve on existing performance in the future. The new activities under design will take deliberate efforts to collect data and report on this indicator.</t>
+  </si>
+  <si>
+    <t>Providing business advisory and investment readiness technical supports to firms will reduce the time banks require to conduct due diligence on loan applicants and disburse funds on time. This will increase finance accessed for both men and women to bridge the gap. The other strategy is to target women-owned businesses as the beneficiaries.  However, the target for women vs men receiving financing was not set for the outyears, the value of agriculture related financing to be leveraged in future years is higher than in FY 2023 and is going to improve the current performance.</t>
+  </si>
+  <si>
+    <t>The target was met with a negative deviation of 6 percent. The negative deviation of 6 percent resulted from the effects of extended dry seasons that affected crop yields and milk production leading to low sales. One of the major activities contributing to this indicator expanded its interventions to Karamoja and refugee hosting districts and it took long to get private sector partners willing to establish business operations in these marginalized areas. It also took long for some of the activities to sign agreements with private sector partners to work with the producers and as off takers. However, one activity working in refugee hosting districts and Karamoja focused on women participation in markets and access to post-harvest handling technologies that realized increased sales.   The outyear targets are higher than the FY 2023 targets as most of the activities would have established formal relationships with the private sectors and some will be promoting adoption of climate smart technologies including drought tolerant crop varieties and capacity building of dairy farmers on forage production and conservation to ensure sustainable milk production throughout the year.</t>
+  </si>
+  <si>
+    <t>In FY23, USAID Tanzania set a target of $2,775,004 in private sector investment. This was far surpassed, with a total of $6,093,367 this year. This was due to a contribution from one big food processor working with the food safety and nutritious processing activity. The target for FY24 has been adjusted to reflect the additional investments that PSSA activity is expecting to leverage through grants that were delayed in FY23, and the partnerships with the private sector from the African Trade Initiative, the Market Systems Partnership, Tuhifadhi Chakula, and Kilimo Tija activities.</t>
+  </si>
+  <si>
+    <t>The total number of Hectares under Climate Adaptation and Risk Management Practices in FY23 was 1376 and 1,939,948 hectares in agriculture and natural resources management respectively.</t>
+  </si>
+  <si>
+    <t>The FY2023 target for Value of annual sales was $54,235,763, this target was exceeded with actual sales amounting to $66,313,131. This is because of the unanticipated high number of Micro, Small and Medium Enterprises working with both Kilimo Tija and AINFP activities. Target set for FY24 ($59,477,537) has been adjusted by taking into consideration the causative of FY23 high performance.</t>
+  </si>
+  <si>
+    <t>In FY23 Women accessed $1.81 for every $1 in financing access by men, indicating an 81 percent advantage in access. With an increased focus on women and youth in access to funds, we expect this to increase in FY24 as most of the new activities will be in full operation.</t>
+  </si>
+  <si>
+    <t>Exceeded. The ACELI Africa Program. ACELI reached slightly more women (716) than men (688), but women were able to access much more financing dollars per person ($128,234) compared to men ($72,256). Male beneficiaries under ACELI fell short of the FY 2023 disaggregate target of $158,200,000 with an actual of $49,712,299 in new private sector investment leveraged. In FY 2023, female beneficiaries under ACELI exceeded the disaggregate target of $67,800,000 with an actual of $91,815,294. Female disaggregate overperformance was due, in part, to the “impact bonus” that ACELI offers to lenders that make loans to gender inclusive businesses (using 2X criteria). ACELI also offered gender lens investing workshops and technical advisory to some of their partner lenders, emphasizing the business case of reaching more women. The average loan size was not intentional. ;; The “impact bonus” incentive, gender lens workshops, and technical advisory under ACELI provide promising practices that might support similar progress in other contexts. ;;  The target for this indicator remains constant at $1.00 for FY 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceeded. The aggregate REFS FY 2023 deviation narrative of 1%. This was due to a number of dynamics moving in both positive and negative directions across the ten (10) legacy RFS FTF activities reporting on this indicator disaggregate in FY 2023, with the net deviation positive. The key activity driving REFS’ aggregate performance in a positive direction was the Stress Tolerant Maize for Africa Activity, which overperformed against its target for this disaggregate of 814,213 hectares with an actual of 972, 347. This was due to higher-than-targeted production  of certified tolerant seed varieties, with more households using the stress tolerant seed varieties. ;;  It is hard to disentangle what causes higher-than-expected seed production at seed companies without conducting extensive, costly surveys, but conducting such firm surveys would help to illuminate factors leading to increased seed production. Similarly, studies looking at household seed uptake would shed insights on factors drive behavioral changes at the household level  ;; Looking ahead to FY 2024 and FY 2025, the OU is not expected to sustain the existing performance. cantly. This is due to the fact the key OU activities driving this result ended in late FY 2023 or will end in FY 2024. It  is not yet known whether REFS will start new activities that report on this indicator. </t>
+  </si>
+  <si>
+    <t>Exceeded. The OU’s aggregate overperformance on this indicator in FY 2023  was driven overwhelmingly by a single activity: The ACELI Africa Program. ACELI exceeded its target of $62,00,000 in new private sector investment leveraged with an actual of $65,000,000. This was due to Aceli partnering with 35 lending institutions in 2023, compared to an initial target at inception of 20. With more partners on board, more loans were registered. ACELI offered incentives for loans made that met the criteria and capacity building to lenders so they better understood agri-SME finance and integrated it into their product offerings. ;; The experience of ACELI provides a potentially promising practice that might support progress in other contexts: offering incentives for loans made that met the criteria and capacity building to lenders so they better understand agri-SME finance and integrate it into their product offerings. ;; Looking ahead to FY 2024, the OU is expected to fall slightly below the FY 2023 results. In FY 2025, however, the OU’s target falls significantly. This is due to the fact that the primary driver of REFS’ results on this indicator – the ACELI Africa Program – will end in 2024. In addition, two (2) out of four (4) of the remaining OU activities will end in 2024. It is not yet known whether REFS will start new activities that report on this indicator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceeded. The REFS aggregate deviation for FY 2023 was 4%. This was due to a number of dynamics moving in both positive and negative directions across the seven (7) legacy RFS FTF activities reporting on this indicator disaggregate in FY 2023, with the net deviation positive. On one hand, ACELI Africa underperformed against its FY 2023 target of $550,000,000.00 with a FY 2023 actual of $501,808,797.00 due to lenders making smaller loans than anticipated. On the other hand, the Alliance for Inclusive and Nutritious Food Processing overperformed against its FY 2023 target of $40,000,000.00 with a FY 2023 actual of $58,364,092.06. This was due to the following: 1) High value of purchases from farmers supplying the food processors; 2)  Improved data collection from the clients supported; and 3) Onboarding of Accelerator (large clients) contributed to the high sales recorded in this period. ;; As the deviation narrative affirms, there are a number of factors that can positively impact aggregate progress on this indicator. Improved promotional and training practices to increase borrower awareness of loan products, adaptive strategic allocation of loans to different crop producers, and  recruitment of larger clients are all practices that might be promising going forward. ;;Looking ahead to FY 2024, the OU is expected to exceed the FY 2023 results. In FY 2025, however, the OU’s target falls significantly. This is due to the fact that four (4) of the OU’s activities that currently report on this indicator will end in 2024 and it is not yet known whether REFS will start new activities that report on this indicator. </t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Bureau for Resilience and Food Security</t>
+  </si>
+  <si>
+    <t>International Food Assistance Division</t>
+  </si>
+  <si>
+    <t>USDA</t>
+  </si>
+  <si>
+    <t>Regional Center for South Africa</t>
+  </si>
+  <si>
+    <t>USAID Cambodia</t>
+  </si>
+  <si>
+    <t>USAID Haiti</t>
+  </si>
+  <si>
+    <t>USAID Mali</t>
+  </si>
+  <si>
+    <t>USAID Niger</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,10 +668,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -139,9 +707,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +747,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +853,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,103 +1003,3537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C91B05F-CBCD-4F47-9DF8-6A19E569FD6C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="13.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="5"/>
+    <col min="2" max="2" width="45" style="5" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.1796875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="203" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="232" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>69</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>69</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>86</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>92</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>92</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>92</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>92</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>92</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>102</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>102</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>102</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>102</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>108</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>108</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>108</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>108</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>108</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>114</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>114</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>114</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>114</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>114</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>119</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>119</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>119</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
+        <v>119</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>119</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>124</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>124</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
+        <v>124</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>124</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>124</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>129</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>129</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>129</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
+        <v>129</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>129</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>135</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>135</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>135</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>135</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" t="s">
+        <v>136</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" t="s">
+        <v>136</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" t="s">
+        <v>136</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
+        <v>136</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
+        <v>136</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" t="s">
+        <v>142</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
+        <v>142</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" t="s">
+        <v>142</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" t="s">
+        <v>142</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" t="s">
+        <v>142</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" t="s">
+        <v>143</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" t="s">
+        <v>143</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
+        <v>143</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" t="s">
+        <v>143</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" t="s">
+        <v>143</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" t="s">
+        <v>149</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204" t="s">
+        <v>149</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
+        <v>149</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" t="s">
+        <v>149</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" t="s">
+        <v>149</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" t="s">
+        <v>150</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B209" t="s">
+        <v>150</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" t="s">
+        <v>150</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" t="s">
+        <v>150</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>150</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>151</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>151</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" t="s">
+        <v>151</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" t="s">
+        <v>151</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>151</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>152</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>152</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
+        <v>152</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" t="s">
+        <v>152</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" t="s">
+        <v>152</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" t="s">
+        <v>153</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" t="s">
+        <v>153</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" t="s">
+        <v>153</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" t="s">
+        <v>153</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" t="s">
+        <v>153</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>154</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" t="s">
+        <v>154</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>154</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" t="s">
+        <v>154</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" t="s">
+        <v>154</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D237" xr:uid="{2C91B05F-CBCD-4F47-9DF8-6A19E569FD6C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D237">
+      <sortCondition ref="B1:B237"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/kin_section4_narratives.xlsx
+++ b/data/kin_section4_narratives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rythomas\Documents\R_scripts\country_scorecards\country_scorecards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C36D8E3-2B65-40B9-BB8F-176E3091D186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FFD2A3-3FAB-4968-B751-E3EFC3186C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08F4287E-D4FA-4E4B-9BD0-8619EF0B0FA0}"/>
   </bookViews>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C91B05F-CBCD-4F47-9DF8-6A19E569FD6C}">
   <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:XFD91"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
